--- a/news_data/2020_11.xlsx
+++ b/news_data/2020_11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,96 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>11월 제주도 관광객 지난해의 98.4% 수준…방역 ‘초비상’</t>
+  </si>
+  <si>
+    <t>제주도, ‘제주에서 만나는 광해군 이야기’ 관광상품 선보여</t>
+  </si>
+  <si>
+    <t>제주도 “제발 당분간 단체 관광·연수 오지 마세요” 호소</t>
+  </si>
+  <si>
+    <t>제주도 77번째 코로나19 환자 발생…관광객과 접촉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제주도, 코로나19 확진자 방문 '관광지 3곳' 추가 공개 </t>
+  </si>
+  <si>
+    <t>"하루 관광객 4만명 속에 혹시 확진자가…" 제주도 '긴장'</t>
+  </si>
+  <si>
+    <t>5조원대 오라관광단지 좌초?…제주도 "현 계획 승인기준 못갖춰"</t>
+  </si>
+  <si>
+    <t>제주도 관광객, 체류 내내 마스크 착용해야 한다…특별명령 발동</t>
+  </si>
+  <si>
+    <t>제주도 야간관광 최적지…용담해안도로·서귀포해안권</t>
+  </si>
+  <si>
+    <t>제주도 코로나19 61번째 확진자 발생…수도권 관광객</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울국제관광박람회 최우수 홍보상</t>
+  </si>
+  <si>
+    <t>제주도, 포스트 코로나 시대 관광시장 '조기 정상화' 총력</t>
+  </si>
+  <si>
+    <t>제주도, 185개 관광업체에 272억원 관광진흥기금 융자 지원</t>
+  </si>
+  <si>
+    <t>웰니스 관광하면 제주도 편도 항공권이 무료</t>
+  </si>
+  <si>
+    <t>코로나19 관광산업 피해 심각 74.8%...제주도 잘한다 80%</t>
+  </si>
+  <si>
+    <t>제주도ㆍ제주도관광협회, 2020 제주안트레 개최</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '칭찬합시다' 베스트 관광인 선정!</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '세계관광의 날' 기념식…마스크 착용 홍보활동</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울국제관광박람회 제주홍보관 운영</t>
+  </si>
+  <si>
+    <t>[제주소식] 제주도관광협회, 단체 관광객 대상 삼다수 제공</t>
+  </si>
+  <si>
+    <t>제주도 관광지별 안전도·혼잡도, 실시간으로 '한눈에'</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울국제관광박람회 '최우수 홍보상' 수상</t>
+  </si>
+  <si>
+    <t>제주도, 포스트 코로나 시대 제주관광 대응전략 마련</t>
+  </si>
+  <si>
+    <t>[전문] 제주도의회 예산안 심사 입장 - 안창남 문화관광체육위원장</t>
+  </si>
+  <si>
+    <t>베트남-제주도 관광산업 활성화 등 우호 협력․교류 강화</t>
+  </si>
+  <si>
+    <t>제주도청 코로나19 62번째 확진자 발생 비상?...관광객 주의</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 10월의 베스트 관광인 선정</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울국제관광박람회 참가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제주도 늦가을 관광객 유치 사활 </t>
+  </si>
+  <si>
+    <t>[제주도의회 쟁점] 전세버스 도산위기…관광지 순환버스 20억 투입 논란</t>
+  </si>
+  <si>
     <t>제주도, 20일 ‘범도민 위기극복 관광산업협력분과협의회 3차회의’ 개최</t>
   </si>
   <si>
@@ -40,43 +130,124 @@
     <t>제주도, 관광객 유치 시동</t>
   </si>
   <si>
-    <t>제주도관광협회, 서울국제관광박람회 최우수 홍보상</t>
-  </si>
-  <si>
     <t>제주도, '사회적 거리두기' 따른 관광버스 분산탑승 비용 지원</t>
   </si>
   <si>
     <t>성산포수협 활어위판장, 제주도 새 명소로 떠올라...성산일출봉·우도 등 관광...</t>
   </si>
   <si>
-    <t>제주도, 20일 ‘범도민 위기극복 관광산업협력분과협의회 3차회의’ 개최 주메뉴 바로가기 본문 바로가기 2022.10.04 (화) 카카오채널 RSS 모바일보기 흐림서울 17.1℃ 구름많음제주 23.9℃ 구름많음고산 22.4℃ 구름많음성산 23.1℃ 흐림서귀포 24.9℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도, 20일 ‘범도민 위기극복 관광산업협력분과협의회 3차회의’ 개최 임의순 기자 jejutwn@daum.net 등록 2020.11.20 10:44:34 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주도는 지난 20일 오후 2시 제주웰컴센터에서 코로나 시대 제주관광산업 대응전략을 마련하기 위한 ‘범도민 위기극복 관광산업협력분과협의회 3차회의’를 개최한다고 밝혔다.범도민 위기극복 관광산업협력분과협의회의는 코로나19 장기화로 인한 관광 산업의 침체 분위기를 회복하고 관광업계 전반에 활력을 불어 넣는 방안을 관광 유관기관, 단체, 업계 등이 논의하기 위해 마련됐다.이날 회의에는 제주도관광협회, 제주관광공사, 제주관광학회, 호텔전문경영인 협회, 숙박업중앙회, 외식업중앙회, 국내여행사협회, 서귀포시관광협의회 등 30여 명이 참석한다.이번 회의에서는 코로나19 발생 이후 제주관광의 현 실태와 추진상황을 점검하고, 위드 코로나 시대 관광산업 활력화를 위한 대책 방안 등을 중점 논의할 방침이다.특히, 철저한 방역을 기반으로 웰니스, 경관중심 체험형 분산관광, 스마트 관광 강화, 어려운 관광 영세업체 지원 방안을 비롯해 관광업체 및 종사자 자체 위생 및 방역 강화, 관광산업의 체질개선 방안 등을 모색할 예정이다.제주교통복지신문, JEJUTWN 임의순 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 [TW포토] 제주관광대 탐모라볼빛축제…장덕철 열창 4 3년 만에 개최되는 제3회 서귀포 은갈치 축제 9월 30일 개최 5 제주시, 10월 시정시책공유 간부회의 개최 6 2022 청춘마이크 제주 뮤직 페스티발 9월 30일 개최 7 [TW포토] 제주관광대 탐모라볼빛축제 성황리에 열려 8 서귀포시 서부보건소, 제주도 최초 선정 '생애 초기 건강관리사업' 운영 9 서귀포시, 민원업무 담당자 직무교육 실시 10 서귀포시, 美 풀러턴(Fullerton)市와 함께한‘창업 및 수출지원 세미나’성료 실시간 뉴스 2022-10-04_TUE [TW포토] 제주 한라산 일출 풍경, '핑크빛 하늘' 06:40 제주 오션갤러리, 시행사 보유분 특별분양 03:58 2022-10-03_MON 제주도, 김희현 정무부지사, 국학기공대회 참석 격려 16:39 제주도, 무오법정사 항일항쟁 104주년…“숭고한 정신 이어 새로운 미래 준비” 16:38 제주도의회 김황국 의원, 스포츠관광 정책 발전 기여 공로상 수상 16:31 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 04일 11시 13분 최상단으로</t>
+    <t>11월 제주도 관광객 지난해의 98.4% 수준…방역 ‘초비상’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 11월 제주도 관광객 지난해의 98.4% 수준…방역 ‘초비상’ 파이낸셜뉴스입력 2020.11.29 19:28수정 2020.11.29 19:28 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 이달에만 코로나19 확진자 21명 발생…‘청정’ 무색제주도, 사회적 거리두기 1.5단계로 격상 본격 검토 코로나19 감염 차단 마스크를 쓴 제주 돌하르방 /사진=fnDB [제주=좌승훈 기자] 신종 코로나바이러스 감염증(코로나19) 확산세가 계속되고 있는 가운데, 제주도가 제주형 사회적 거리두기 격상여부를 본격 논의한다. 이는 추석연휴(9월30일∼10월4일)가 낀 지난 10월에도 코로나19 신규 확진자가 단 1명도 없던 게 이달 들어서만 무려 21명(#60~80)이나 발생했기 때문이다. 이제는 코로나19 ‘청정’지역이란 말도 꺼낼 수 없게 됐다. 더욱이 관광객 수도 코로나19 이전 수준을 회복한 상태라서, 지금 시스템과 방역인력 구성만으로는 과부하가 걸릴 가능성도 높다. 실제로 11월 제주를 찾은 관광객은 내국인을 기준으로 28일까지 934만5604명으로 지난해 같은 기간(110만1266명)의 98.4% 수준이다. 제주도는 이에 따라 오는 30일 원희룡 지사 주재로 코로나19 대응 비상대책회의를 갖고, 최근 도내·외 확진자 발생 동향과 코로나19 대응 상황을 점검하기로 했다. 앞서 중앙재난안전대책본부는 12월1일 자정부터 전국의 사회적 거리두기를 1.5단계로 격상했다. 비수도권은 지역사회 상황에 따라 사회적 거리두기와 방역 수위 조치를 탄력적으로 적용할 것을 권고했다. 제주도는 이에 따라 비상대책회의를 통해 관광객과 다른 지역 방문 제주도민 대상의 특별 방역관리 방안을 포함해 제주형 사회적 거리두기 격상여부와 수준, 대학수학능력시험 방역대책 등을 검토하고, 12월2일 결과를 발표할 계획이다. ■ 무증상·경미한 상태로 여행…타지역 확진자도 19명 앞서 최승현 행정부지사는 지난 27일 제주도의회 2021년도 제주도 예산안 심사에 참석한 가운데 “제주에서 코로나19 확진자가 지속적으로 발생하고 있다”며 “제주형 사회적 거리두기 단계 격상을 검토해 곧 발표하겠다"고 밝힌 바 있다. 제주형 사회적 거리두기를 현행 1단계에서 1.5단계로 격상하는 기준은 1주일 평균 1일 확진자 5명이다. 한편 도내에선 29일 오후 6시를 기준으로 이달에만 21명(남 진주시 이·통장 회장단 관련 5명 포함)의 코로나19 확진자가 나온 데다, 무증상 또는 경증 상태로 제주여행을 하고난 후, 거주지 보건소로부터 통보를 받은 타지역 확진자도 19명으로 파악돼 역학조사 역량이 한계에 다다를 수 있다는 우려도 나오고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, ‘제주에서 만나는 광해군 이야기’ 관광상품 선보여 &lt; 국내 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:50 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도, ‘제주에서 만나는 광해군 이야기’ 관광상품 선보여 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 국내 제주도, ‘제주에서 만나는 광해군 이야기’ 관광상품 선보여 기자명 정기환 기자 입력 2020.11.30 14:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 11월 3일부터 광해군 테마 레시피 개발·기념품·체험 등 14개 사업장 상품화 시동 사진= 제주도, ‘제주에서 만나는 광해군 이야기’ 관광상품 선보여[디스커버리뉴스=정기환 기자] 제주에서 유배생활을 한 유일한 왕인 '광해군'의 스토리에 기반한 테마상품 개발이 본격화되고 있어 제주시 원도심 활성화에 기여할 것으로 기대된다. 제주특별자치도는 제주시 원도심 도시재생 마중물사업의 일환으로 제주도와 광해군을 연계한 ‘2020 으라차차, 어쨌든 원도심’ 지역상생 프로그램을 추진하고 있다고 밝혔다. 이번 사업은 제주와 광해군의 연계성을 부각해 제주시 원도심을 활성화시키고 지역주민들에게 광해군 관련 다채로운 콘텐츠와 프로그램을 제공하기 위해 마련됐다. 세부 프로그램은 ‘광해, 빛의 길을 걷다’, ‘원도심 광해 요리사’,‘광해군 테마 기념품 및 체험프로그램’,‘으라차차, 어쨌든 원도심 캠페인’,‘온라인 토크 – 원도심 광해를 만나다’등 크게 5가지로 나눠 운영되고 있다. 특히 ‘원도심 광해요리사’는 지역 내 음식점과 카페 등 7개 사업장이 직접 참여해 각종 문헌을 바탕으로 광해군이 즐겨 먹은 것으로 알려진 꽈배기와 광해가 등장하는 영화에 나왔던 단팥죽 등 새로운 레시피를 개발해 판매하고 있다. 메뉴는 임금에게 올렸던 실속형 한상차림 ‘광해소반’과 간편하면서도 영양가 있는 임금님의 나들이 음식‘광해행찬’이라는 테마로 모두 10가지이다. 아울러 원도심에서 활동하는 공방과 작가들이 중심이 되어 7개 사업장에서 광해군이 쓴 시를 새겨놓은 유리문진, 광해손수건 등의 기념품과 체험 프로그램인 광해단청 리사이클 벽시계 체험키트 등의 콘텐츠 상품들도 선보이고 있다. 제주도는 지난해 6월부터 광해군 콘텐츠를 활용한 원도심 활성화를 위해 도시재생지원센터, 제주대학교 스토리텔링연구개발센터, 제주민속자연사박물관 등과 업무협약을 체결했다. 도는 업무협약 체결 이후 기초조사, 광해밥상 전시회 및 워크숍 개최, 추진협의체 운영, 사업장별 개별 컨설팅 등 꾸준히 사업화 준비를 진행해왔다. 이번에 개발된 14개 사업장의 테마상품은 지난 11월 3일 도시재생지원센터에서 열린 품평회를 통해 첫 선을 보였으며 11월 13일부터 15일까지 공식 시범운영을 거쳤다. 이후에도 찾는 사람들이 많아 많은 상품들이 조기 매진되는 등 좋은 성과를 보이고 있는 것으로 나타났다. 도는 현재까지 시범운영을 거쳐 나타난 미비점을 보완해 12월부터 공식 상품화를 준비할 계획이라고 전했다. 고윤권 도 도시건설국장은 “이번 사업을 계기로 광해를 테마로 한 콘텐츠 상품의 가능성을 충분히 확인했다”며 “단순 일회성 이벤트 및 한시적 프로그램의 한계를 벗어나 민간과 협력해 활성화 방안을 마련한 소중한 사례로 그 의미가 크다”고 밝혔다.&lt;정기환 기자 jeong9200@sundog.kr&gt; 정기환 기자 jeong9200@gmail.com 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 “제발 당분간 단체 관광·연수 오지 마세요” 호소 : 제주 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [단독] 감사원, 국민감사본부 만들어 한 일이 ‘KBS 감사’ 뿐 [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 ‘문자 내통’ 유병호 “송구스럽지만, 그 소통은 정상적인 것” 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야”서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 ‘일제고사’ 부활 선언…윤 대통령 “원하는 모든 학교 참여” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 인류가 가장 가까이서 본 유로파, 뒤얽힌 얼음 능선 너머엔… ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국제주 제주도 “제발 당분간 단체 관광·연수 오지 마세요” 호소 등록 :2020-11-27 18:35수정 :2020-11-27 20:59 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 “단체 관광, 개별관광객보다 역학조사 어려워”진주 이·통장 관련 제주 확진자 4명 추가 발생 코로나19가 급속히 퍼지면서 제주도가 단체 관광과 연수를 자제해달라고 읍소하고 나섰다. 제주도는 최근 경남 진주지역 이·통장회장단 등의 단체 연수 등으로 코로나19 확진자가 속출하자 중앙정부와 각 지방자치단체, 유관 공공기관 등에 단체 연수 등의 방문을 당분간 자제해달라고 27일 공식 요청했다. 도는 단체 연수나 워크숍, 관광 등의 경우 단체 여행객 특성상 관련 동선이 개별관광객에 견줘 다양하고 복잡해 신속한 역학조사가 어려울 뿐 아니라 지역사회의 산발적인 추가 감염이 이어질 수 있다고 판단하고 있다. 도는 공공기관 주관 단체 여행을 자제하라는 내용을 포함한 공문을 이날 보냈다. 도는 또 부득이한 이유로 제주지역 내에서 연수나 워크숍 등 단체 모임과 행사를 하게 되면 체류 기간 마스크 착용, 코로나19 의심 증상 발현 시 의료기관 즉시 방문 등 방역수칙을 반드시 지키도록 했다. 도는 방역수칙 미준수로 방역활동에 피해가 발생했다고 판단하면 관련 경제적, 행정적 비용에 대한 구상권을 청구할 계획이다. 도는 현재 3건에 대한 소송을 진행하고 있다. 이와 관련해 중앙재난안전대책본부는 이날 정례 브리핑에서 ‘제주도 겨울철 대유행 특별방역대책’을 소개하며 제주도가 현재 시행하는 입도객 방역수칙 준수 의무화 행정조치 발동과 37.5도 이상 발열자 및 유증상자에 대한 진단 검사 등을 안내했다. 한편 경남 진주지역 이·통장들의 제주도 연수와 관련해 이날 오후 6시 현재 도내에서는 모두 4명의 확진자(73~76번째)가 발생했다. 지난 16~18일 제주 여행을 한 진주 이·통장 회장단과 직접 접촉 뒤 확진된 73번째 확진자 발생 후 도내에서는 잇따라 3명(74~76번째)의 확진자가 발생해 지역 전파 우려가 제기되고 있다. 제주 73번째 확진자는 진주 이·통장 회장단의 최초 확진자인 경남 481번째 확진자의 접촉자이며, 74, 75번째 확진자는 73번째 확진자의 가족이다. 76번째 확진자도 경남 481번째 확진자의 접촉자로 분류됐다. 임태봉 도 재난안전대책본부 통제관은 “공공부문부터 단체 연수와 관광 등을 최대한 자제하고 지역사회 확산 방지를 위한 사회적 거리두기를 실천해 달라”고 당부했다. 허호준 기자 hojoon@hani.co.kr 이슈코로나19 세계 대유행 ‘코로나 영웅’서 ‘비효율 주범’으로 전락한 공공의료기관 간호사 “12월~3월 사이 코로나 재유행”…새로운 변이도 국내 유입 중국 방역 완화?…탁구대회 이어 다음달 3만명 베이징마라톤 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 3. 김진태 등에 업은 ‘학업성취도평가’…“학원에 선물 주는 것” 4. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 5. “토건 집착, 공공의료 뒷전” 대구 시민단체의 홍준표 100일 비판 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>제주도 77번째 코로나19 환자 발생…관광객과 접촉 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 77번째 코로나19 환자 발생…관광객과 접촉 파이낸셜뉴스입력 2020.11.27 16:26수정 2020.11.27 16:26 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 이달에만 18명 감염…관광객 지난해 수준 회복 '특별 입도절차' 재가동 제주공항 선별진료소 【제주=좌승훈 기자】 제주도는 27일 도내 77번째 코로나19 확진자가 발생했다고 밝혔다. 이달에만 18명(60~77번)째다. 해당 확진자는 서울시 거주 관광객과 접촉했던 것으로 파악됐다. 제주도는 이날 오후 2시10분쯤 제주도 보건환경연구원으로부터 이 같은 사실을 통보받았다. 제주 77번째 확진자 A씨는 지난 15~18일 제주를 다녀간 뒤 20일 서울에서 확진 판정을 받은 서울지역 확진자와 제주에서 접촉했던 것으로 파악됐다. A씨는 서울지역 확진자의 제주 체류 동선을 파악하기 위한 역학조사 과정에서 21일 접촉자로 분류돼 자가격리를 시작했다. A씨는 격리 전 검사를 진행한 결과 음성 판정을 받았으나, 26일 발열·코감기 증상이 나타나 같은 날 오후 6시쯤 제주보건소 선별진료소를 방문해 검체를 채취한 가운데 27일 최종 확진 판정을 받았다. A씨는 제주대학교병원 음압병상으로 이송돼 격리 치료중이다. 제주도는 확진자 A씨의 경우 방역당국의 모니터링 하에 자가 격리를 진행하던 중 확진 판정을 받음에 따라 별도의 방문지와 접촉자가 없을 것으로 예상하고 있다. 제주도는 확진자의 진술과 신용카드 사용내역, 현장 CCTV 분석을 통해 세부 동선을 조사하고 있다. 제주도는 이들과 관련한 세부 동선과 접촉자 정보가 확인되는 대로 방역 조치할 방침이다. 한편 11월 들어 제주를 향한 관광객 발길이 늘면서 내국인 방문객 수는 지난해 수준을 회복한 것으로 나타났다. 제주도 관광협회에 따르면, 내국인을 기준으로 지난 1~27일 102만4351명이 제주를 찾으면서 지난해 같은 기간(102만7050명)의 99.7%에 이르고 있다. 제주도는 최근 누적 관광객이 내국인을 기준으로 전년 수준을 회복한 가운데 지역 내 확진자가 빠르게 증가하고 있음에 따라 지난 24일부터 공·항만에서 37.5도 이상의 발열 증상이 있으면 코로나19 진단검사를 의무적으로 받는 특별 입도절차를 재가동했다. 입도객 중 공·항만에서 발열이 감지되면, 의무적으로 검사를 받아야 하며 격리비용은 본인이 부담해야 한다. 여행하는 기간 방역수칙을 위반하면 구상권도 청구한다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 확진자 방문 '관광지 3곳' 추가 공개  - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 코로나19 확진자 방문 '관광지 3곳' 추가 공개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도, 코로나19 확진자 방문 '관광지 3곳' 추가 공개 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.11.27 10:16 댓글 3 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 접촉자 미파악 장소 대상 공개..."해당 동선 이용자 진단검사 당부" 제주도에서 여행객들을 중심으로 코로나19 확진자가 연이어 발생하고 있는 가운데,  확진자의 이동동선 중 접촉자가 정확하게 파악되지 않은 관광지 등이 추가로 공개됐다. 제주특별자치도는 27일 코로나19 확진자들이 다녀간 동선 중 현재까지 접촉자 파악이 완료되지 않은 장소와 시간을 공개하고, 해당 시간 이용자들은 코로나19 진단검사를 반드시 받아달라고 당부했다. 이번에 공개된 동선은 관광지와 공연장 등 3곳이다. 이 장소들은 환자진술과 CCTV 기록, 카드사용내역 수신 메시지 등으로 확인됐다. 확진자의 이용시간은 △상효원 수목원 내 기념품 매장 17일 오후 3시34분~오후 4시20분 △스카이워터쇼 18일 오전9시20분~오전10시26분 △일출랜드 내 미천굴 18일 낮12시33분~오후 1시28분 곳이다. 해당 일시에 해당 장소를 방문한 사람은 코로나19 증상 발현에 관계없이 가까운 보건소를 방문해 관련 이력을 밝히고, 코로나19 진단 검사를 받아야 된다. 제주도 방역당국은 이번에 공개된 3곳을 다녀간 확진자 정보는 공개하지 않았다. 제주도는 해당 방문지에 대한 모든 방역조치는 완료된 상태라고 밝혔다. 제주지역 내 공개된 동선 정보는 제주특별자치도 홈페이지 ‘코로나19 현황보기(http://www.jeju.go.kr/corona19.jsp#corona-main)’를 통해서도 확인이 가능하다. 한편, 감염병 환자의 동선은 중앙방역대책본부의 확진환자의 이동경로 등 정보공개 지침(1판)에 따라 공개되고 있다. 이에 따라 역학조사로 파악된 접촉자 중 신원이 특정되지 않은 접촉자가 있어 대중에 공개할 필요가 있거나, 불특정 다수에게 전파할 가능성이 있거나 피해가 발생할 수 있는 경우에 한해 공개가 이뤄진다. 동선 공개는 모든 장소를 개인별 이동경로 형태가 아닌 목록 형태로 △지역 △장소유형 △상호명 △세부주소 △노출일시 △소독 여부를 포함해 이뤄지고 있다. 반면, 확진자 동선의 방문지 중 해당 공간 내 모든 접촉자가 파악된 경우에는 공개하지 않고 있다. 제주도 관계자는 "확진환자의 이동경로는 중앙방역대책본부의 확진환자의 이동경로 등 정보공개 지침 1판에 따라 역학적 이유, 법령상 제한, 확진자의 사생활 보호 등의 다각적 측면을 고려해 감염병 예방에 필요한 동선에 한해 공개된다"고 설명했다. 이어 "모든 접촉자 파악과 격리, 방역 소독 등의 조치를 모두 완료한 곳에 대해서는 사생활 보호와 해당 업소의 피해, 불필요한 사회적 혼선 등을 감안해 공개하지 않고 있다"고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주, 여행객發 코로나 확진자 속출..."단체여행 자제" 호소 '제주 여행' 타 지역 코로나19 확진자 잇따라...11월 '19명째' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 3 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 정의인 2020-11-28 19:40:31 | 39.***.***.196 더보기 삭제하기 수정하기 사생활보다 닥쳐올 사회문제가 더 심각하다면 더 큰 문제 되기전에 감염자 파악과 또다른 감염 방지 위해 동선 공개는 매우 중요한 역할을 한다. 국민들은 확진자의 사생활에 무관심하며 국민 자신 보호를 더 원하고 있슴을 알아야 한다. 특히 많은 사람이 마스크 벗고 공동이용하는 시설, 특히 식당, 목욕탕, 커피샾, 병의원등 동시간 이용자가 스스로 알아서 확진 검사 받을수 있도록 즉각 발표해야만 한다. 답글쓰기 2 0 문간첩 2020-11-27 12:49:39 | 122.***.***.206 더보기 삭제하기 수정하기 확진자가 있다면서 동선은 공개하지 않는것은 공개할 능력이 없거나 거짓말이거나 둘중 하나 답글 1 4 1 hok 2020-11-27 11:47:31 | 210.***.***.190 더보기 삭제하기 수정하기 확진자 또는 감염자의 개인신상정보는 비공개 동의하나.... 확진자의 접촉자가 발생한 장소 및 이동수단 등은 공개하도록 되어 있는데... 해당 공간내 모든 접촉자가 파악된 경우 공개하지 않음이 원칙으로 되어져 있는데... 본 경우에는 n차감염 발생 위험이 없다고 확신되는 경우에 한해되는 것 아닐까 생각합니다. 그리고, 모든 접촉자가 파악되었다는 것을 정확하게 알려주어야 하지 않을까요. 최소한 몇명의 접촉자가 있었다라는 형태로 말입니다. 답글쓰기 0 0 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>"하루 관광객 4만명 속에 혹시 확진자가…" 제주도 '긴장' :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 "하루 관광객 4만명 속에 혹시 확진자가…" 제주도 '긴장' 등록 2020.11.24 10:30:58 작게 크게 이달에만 제주 방문한 타지역 확진자 11명 "감염된채 이곳저곳 관광하면 큰 일" 수도권 등 방문한 제주도민 감염사례 40.3% [제주=뉴시스]우장호 기자 = 광복절 황금연휴 마지막 날인 17일 제주국제공항 1층 도착장에 막바지 휴가를 즐기려는 관광객들의 발걸음이 이어지고 있다. 2020.08.17. woo1223@newsis.com [제주=뉴시스] 양영전 기자 = 수도권을 중심으로 한 신종 코로나바이러스 감염증(코로나19) 확산세가 이어지고 있는 가운데 제주를 찾는 관광객이 일평균 4만명 안팎을 기록하면서 방역당국이 긴장하고 있다. 24일 제주도에 따르면 11월 한 달 동안 제주를 여행하거나 방문한 뒤 타지역에서 코로나19 에 감염된 사례는 모두 9건이다. 지난 23일 서울에서 확진 판정을 받은 A씨는 지난 17일부터 19일까지 2박3일 일정으로 제주를 여행한 것으로 파악됐다. 이보다 하루 앞선 22일 경기에서 확진 판정을 받은 B씨도 확진 전인 15일부터 20일까지 5박6일 일정으로 제주를 여행한 것으로 확인됐다. 이 외에도 지난 20일 서울에서 확진된 2명이 확진 판정을 받기 전 제주를 방문했고, 경남 거주자 3명도 2박3일 일정으로 제주를 여행한 뒤 지난 18일 양성 판정을 받았다. 이들과 접촉했거나 동행한 인원을 포함해 제주 방문 뒤 코로나19 양성 판정을 받은 환자는 총 11명이다. 특히 이들 확진자는 제주 체류 당시에 이미 코로나19에 감염됐을 가능성이 높아 지역사회 확산 우려를 키우고 있다. 수도권을 중심으로 전국에서 확진자가 늘고 있는 가운데 제주를 찾는 관광객은 일평균 4만명 안팎을 기록하고 있다. 이로 인해 타지역 확진자로 인한 감염 가능성도 덩달아 높아지고 있다. 제주도관광협회에 따르면 최근 일주일 제주 입도객은 16일 4만613명, 17일 3만6406명, 18일 3만7427명, 19일 3만9446명, 20일 4만1833명, 21일 3만9635명, 22일 3만8172명 등 일평균 3만9000명을 넘어섰다. 내국인 관광객만을 놓고 보면, 이달 들어 22일까지 88만8138명이 제주를 방문해 지난해 같은 기간 88만426명에 비해 7000여명 늘어났다. 코로나19가 국내에 퍼지기 전보다 오히려 더 증가한 수치다. 이와 함께 제주 거주자가 타지역을 방문한 뒤 돌아와 감염되는 사례도 꾸준히 늘고 있다. 지난 22일 발생한 제주 66번째 확진자는 확진 전 체류한 서울에서 또 다른 확진자가 다녀간 시설의 동일 시간대 방문자로 파악됐다. 현재까지 제주지역 67명 가운데 40.3%에 해당하는 27명이 타지역 방문 이력이 있고, 해외 방문 이력으로 감염된 사례(21명)까지 합하면 71.6%(48명)가 외부에서 감염된 것으로 집계되고 있다. 제주도 외의 지역을 기점으로 한 확진자가 늘면서 제주도는 타지역 방문 이력이 있는 유증상자에 대해 코로나19 진단 검사를 지원하기로 했다. ◎공감언론 뉴시스 0jeoni@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 관련기사 제주 여행 후 상경한 2명 확진…도, 체류일정 파악 중 "코로나19 증상 의심되면 제주공항서 꼭 검사 받으세요" 제주 67번째 확진자 발생…수도권 거주자 제주 여행후 확진 서울 거주자, 동선 조사 중 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>5조원대 오라관광단지 좌초?…제주도 “현 계획 승인기준 못갖춰” &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 5조원대 오라관광단지 좌초?…제주도 “현 계획 승인기준 못갖춰” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 5조원대 오라관광단지 좌초?…제주도 “현 계획 승인기준 못갖춰” 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2020.11.23 10:04 댓글 11 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 원희룡 지사, ‘송악선언’ 실천조치 3호 발표…“청정과 공존의 원칙 엄격 적용” 천명 5조원대 투자계획으로 추진되고 있는 오라관광단지 개발사업이 현재의 사업계획으로는 사업허가를 받기 어려울 전망이다. 제주도가 기존계획은 자본조달뿐 아니라 사업내용, 수행능력 등에서 민선 7기 도정이 천명하고 있는 ‘청정과 공존’ 비전에 부합하지 않다고 판단해서다.만약 사업자가 제주도가 새로운 사업계획서 제출 마지노선으로 제시한 내년 2월까지 사업계획서를 제출하지 않을 경우 1999년부터 시작된 오라관광단지 조성사업은 최종 ‘좌초’ 될 것으로 전망된다.원희룡 제주도지사는 23일 오전 10시 제주도청 기자실에서 ‘청정제주 송악선언 실천조치 3호’ 기자회견을 갖고 “오라관광단지 조성사업에도 송악선언에 제시한 청정과 공존의 원칙을 적용하겠다”고 천명했다.원희룡 지사는 “제주오라관광단지 개발사업은 사업자가 재수립하는 사업계획이 기존 사업계획과 실질적으로 다르지 않다면, 앞으로 남아있는 절차인 개발사업심의위원회의 심의와 도지사의 최종 승인여부 결정과정에서 승인받기 어렵다”고 강조했다.앞서 원희룡 지사는 지난 10월25일 ‘청정제주 송악선언’을 통해 “청정 제주를 지키기 위한 난개발 문제를 처리하는데 있어 청정과 공존의 원칙을 적용하고 적법 절차로 진행하겠다”고 표명한 바 있다.이어 2일과 15일에는 송악산 유원지 사업의 후속 실천조치 1, 2호를 발표했다.23일 오전 10시 제주도청 기자실에서 ‘청정제주 송악선언 실천조치 3호’(오라관광단지 개발사업 관련) 발표 기자회견을 하고 있는 원희룡 제주도지사. ⓒ제주의소리오라관광단지는 제주시 오라동 357만여㎡(1백만여평)에 5조2000억원을 투입해 숙박시설(3570실)과 상업시설, 회의시설, 테마파크, 골프장 등을 짓는 제주 최대규모의 복합관광단지 조성사업이다.1999년부터 논의되어온 이 사업은 여러 차례 사업시행자가 변경되면서 지연돼 오다 2015년부터 현재의 사업자(JCC)가 재추진하고 있다.사업자는 지난 2015년부터 경관, 도시계획, 교통, 도시건축, 환경영향 분야에 대한 심의·평가를 거쳐 오고 있지만, 대부분 절차에서 재검토·수정이 요청되거나 조건부 통과되어 왔다.특히, 지난 2017년 6월 제주도의회의 요청에 따라 금융·회계·투자·법률 전문가들로 구성된 자본검증위원회의는 사업자의 투자 적격성과 자본조달 가능성을 검증한 결과, 자본조달 능력에 대한 소명이 미흡하고 외부로부터 투자자금 조달도 불확실하며 관광사업과 해외 직접투자사업 경험이 없다고 판단했다.올해 7월31일 열린 개발사업심의위원회는 “사업자는 5조원이 넘는 자금이 투자됨에도 불구하고 사업의 수익을 뒷받침하는 구체적이고 현실성 있는 사업계획을 제시하지 못했다”며 국내외 여건 변화를 반영해 사업계획서를 전면 재수립할 것을 사업자에게 요청했다.원희룡 지사는 “지금까지의 오라관광단지 개발사업은 자본조달뿐만 아니라 사업내용, 사업 수행능력과 사업 지속성 등에서 합리적 설득력이 부족하고 청정 제주와도 조화되기 어렵기 때문에 사업 승인에 필요한 기준을 갖추지 못하고 있다”고 말했다.이어 “새로이 사업계획서가 제출되면 적법절차를 거쳐 자본의 신뢰도와 사업내용의 충실성, 미래비전 가치 실현 적합성 등을 엄격히 심사한다는 송악선언의 기준에 따라 판단할 것”이라며 “청정과 공존의 원칙을 적용하면서도 적법절차에 따라 처리해나가겠다”고 강조했다.제주도가 제시한 새로운 사업계획서 제출 마지노선은 내년 2월까지다. ‘만약 사업자가 새로운 사업계획서를 내년 2월까지 제출하지 않아 사업이 최종 무산될 경우 제주도가 해당 부지를 매입할 계획은 있느냐’는 질문에 원 지사는 “일단 부지가 워낙 넓기도 해서 매입을 우선순위에 넣고 있지는 않다”면서도 “검토는 해보겠다”고 여지를 남겼다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객, 체류 내내 마스크 착용해야 한다…특별명령 발동 본문 바로가기 제주도 관광객, 체류 내내 마스크 착용해야 한다…특별명령 발동 매일경제 매일경제TV 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 예능 교양 드라마 편성표 온에어 통합검색 닫기 뉴스 다시보기 이슈플러스 연예 포토 전체 정치 사회 경제 국제 문화 스포츠 연예 생활/건강 엠픽 데이터M 인기척 다듬은 우리말 뉴스 &gt; 사회 제주도 관광객, 체류 내내 마스크 착용해야 한다…특별명령 발동 기사입력 2020-11-27 17:53 l 최종수정 2020-12-04 18:03 경남 진주 이·통장 신종 코로나바이러스 감염증(코로나19) 집단 감염 사태로 'n차 감염'이 시작된 제주에서 관광객 등 방문객에 대한 특별 행정명령이 내려졌습니다. 제주도는 오늘(27일) '겨울철 특별방역 관리기간 입도객 대상 방역수칙 준수' 특별 행정명령을 발동했다고 밝혔습니다. 이에 따라 지난 24일부터 올해 말까지 제주국제공항과 제주항을 통해 제주에 온 도민 및 관광객 등 방문객은 도내 체류 기간 중 마스크를 반드시 착용해야 하며 방역 당국의 방역 수칙을 의무적으로 준수해야 합니다. 또 이 기간 발열 등 코로나19 의심 증상이 나타나면 일정을 취소하고 도 보건소 및 선별진료소 등 지정 의료기관을 즉시 방문해 검사를 받아야 합니다. 도는 방문객이 체류 기간 의심 증상이 있음에도 의료기관 등을 방문하지 않고 방역상 문제를 야기하면 구상권을 청구하거나 벌금을 부과할 계획입니다. 진주 이·통장 일행 23명은 지난 16일부터 18일까지 제주를 연수차 방문했습니다. 또 이들 이·통장 일행 중 A씨는 다른 진주시 성북동 통장과 공무원 일행 20명과 함께 지난 20일부터 22일까지 제주를 재차 방문했습니다. 이들 진주 이·통장들은 경남으로 돌아간 뒤 코로나19 집단 확진자로 분류됐습니다. 또 이들 방문으로 제주에서도 이날 현재까지 4명이 확진됐습니다. 최근 코로나19 증세가 있는 확진자가 제주 여행을 하는 사례가 발생하고 있습니다. [MBN 온라인뉴스팀] Copyright ⓒ MBN(매일방송) 무단전재 및 재배포 금지 화제 뉴스 '우울증·생활고에'…경남에서 초등생 자녀 살해 후 극단 선택 잇따라 김재원 "윤 대통령, 한동훈 아주 애정어린 눈으로 지켜보지 않을까" 정진석 "조선, 안에서 썩어 문드러져"…민주 "식민사관 언어" 직장인 올해 남은 '대체 휴일'은? 신혜성, 음주운전 인정…"본인 차 아닌지 몰랐다" '우영우 팽나무', 천연기념물 지정…명예 이장에 배우 정규수 위촉 오늘의 이슈픽 인기영상 시선집중 스타 핫뉴스 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. 금주의 프로그램 화제영상 더보기 이시각 BEST 뉴스 동영상 주요뉴스 더보기 MBN 인기포토 아이프레임 미지원 장치에서는 내용을 확인할 수 없습니다. SNS 관심기사 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 사이트맵 Family Site Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 이동원 서울시 중구 퇴계로 190 (주)매일방송 오시는길 대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 인터넷신문등록번호 서울 아01043 사업자 등록번호 201-81-25980 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 야간관광 최적지…용담해안도로·서귀포해안권 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 야간관광 최적지…용담해안도로·서귀포해안권 파이낸셜뉴스입력 2020.11.18 13:54수정 2020.11.18 13:55 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주관광공사, 야간관광 활성화 조사연구 발표 새로운 인연을 만들어가는 다리’로 유명한 새연교. 서귀포항과 새섬을 잇고 있다. [사진=제주관광공사 제공] 【제주=좌승훈 기자】 제주도내에서 야간관광지로 가장 적한한 곳은 제주북부 해안도로와 제주시·서귀포시 원도심, 서귀포 해안권, 성산일출권인 것으로 나타났다. 제주관광공사(사장 고은숙)는 18일 이 같은 내용의 '제주 야간관광 활성화를 위한 조사연구' 결과를 발표했다. 이 가운데 제주북부해안도로와 서귀포 해안권은 야간관광 추진 적합 우선 사업 대상지로 선정됐다. 추진 적합 지역은 도내 관광자원, 숙박 시설, 음식점 등의 실태 분석과 표적집단 면접(FGI), 관광객(539명)·제주도민(229명) 대상의 야간관광 인식 설문조사 등을 통해 최종 확정됐다. 우선사업 대상지로 선정된 제주북부 해안도로는 제주시 용두암에서 이호테우해변까지 이어지는 구간이다. 서귀포 해안권은 새연교에서 천지연폭포, 서귀포항으로 이어지는 구간이다. 용담해안도로에 있는 도두봉에서 본 해질 무렵 제주바다. [사진=제주관광공사 제공] 우선 대상은 아니지만 제주시 원도심은 관덕정-동문시장-산지천, 서귀포 원도심은 매일올레시장-이중섭거리, 성산일출권은 성산일출봉에서 터진목 갯벌 사이 구간이다. 야간관광 선호시간대는 밤 9시부터 12시 사이가 가장 높았다. 하지만 원도심에 거주하는 주민들은 야간관광으로 인해 소음이나 불건전행위 증가에 대한 우려를 지적하는 목소리도 나왔다. 이와 함께 제주 방문 관광객들은 야간관광 적합 장소와 선호 장소를 묻는 질문에 ‘해변·해안’이라고 답한 비율이 절반(50.8%)을 넘겼다. 선호 유형으로는 ‘경관 관람형(61.6%)’이 가장 높게 나타났다. 야간관광 추진을 위한 31개 콘텐츠도 제시됐다. 단기사업으로는 나이트마켓 운영을 비롯해 조형물을 일관되게 조성하는 방식의 스트리트 사이니지 설치와 선상 야경투어 등을 제안했다. 중기사업으로는 나이트가든, 나이트로드 조성 등이, 장기사업으로는 야간 조형공원 조성, 미디어아트 스트리트 운영 등이 제시됐다. 고선영 공사 연구조사센터장은 “이번 연구를 통해 주간에 집중된 제주관광의 시간적 한계를 극복하고 야간관광 활성화를 위한 방안이 제시됐다”며 “향후 제주 야간관광 만족도 제고와 야간관광 소비 증대에 기여하기 위해 힘쓸 예정”이라고 밝혔다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 코로나19 61번째 확진자 발생…수도권 관광객 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 코로나19 61번째 확진자 발생…수도권 관광객 파이낸셜뉴스입력 2020.11.11 20:28수정 2020.11.11 20:29 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 10일 입도 11일 오후 확진 판정 제주국제공항 국내선 도착장에서 진행되고 있는 발열검사. 【제주=좌승훈 기자】 제주지역에서 61번째 코로나19 확진자가 나왔다. 지난 3일 수도권 확진자와 접촉한 60번째 감염자가 나온 이후 일주일만이다. 제주도는 11일 오후 4시쯤 수도권 거주자인 A씨가 제주도 보건환경연구원으로부터 코로나19 확진 판정을 받았다고 밝혔다. A씨는 지난 10일 관광차 제주에 왔다가 두통·발열 증상이 있어 11일 오전 9시30분쯤 제주시 소재 중앙병원 선별진료소에서 코로나19 검체 검사를 받았다. 제주도는 A씨의 방문지와 접촉자에 대한 역학조사에 착수하는 한편 A씨를 제주대학교병원 음압병상으로 이송돼 격리 치료를 받고 있다. 제주도는 A씨와 관련한 세부 동선과 접촉자 정보가 확인되는 대로 방역 조치할 방침이다. 역학조사 완료 후에는 중앙방역대책본부 확진자의 정보공개 지침에 따라 이동동선을 목록 형태로 제주도 홈페이지에 공개할 계획이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울국제관광박람회 최우수 홍보상 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회, 서울국제관광박람회 최우수 홍보상 파이낸셜뉴스입력 2020.11.16 00:10수정 2020.11.16 00:23 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주도홍보관 【제주=좌승훈 기자】 제주도관광협회(회장 부동석)는 지난 9일부터 12일까지 서울 강남구 세텍(SETEC)에서 열린 2020 서울국제관광박람회에서 최우수 홍보상을 수상했다. ‘2020 서울국제관광박람회’는 올해 열린 관광박람회 중 가장 큰 규모로 운영됐다. 코트파(KOTFA)가 주최하고 문화체육관광부·한국관광공사가 후원한 가운데 38개 국가와 127개 기관·업체, 15개 광역시·도, 16개 기초지자체가 참여했다. 제주도관광협회는 제주관광홍보관 운영을 통해 코로나19 이후 안전관광을 추구하는 언택트 여행과 다시 각광을 받고 있는 신혼여행, 고부가가치 골프관광 등 ‘안전하고 즐겁고 여유로운 제주여행’을 주제로 홍보에 나서 관람객들로부터 큰 호응을 얻었다. 부동석 회장은 “포스트 코로나 시대에 대응한 온·오프라인 홍보를 병행하면서 제주만의 특색 있는 관광콘텐츠 육성에 더욱 힘쓸 것”이라고 밝혔다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 포스트 코로나 시대 관광시장 '조기 정상화' 총력 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 포스트 코로나 시대 관광시장 '조기 정상화' 총력 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 포스트 코로나 시대 관광시장 '조기 정상화' 총력 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.11.22 09:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광시장 조기 정상화를 위해 싱가포르와 홍콩 등 방역우수국 관광객이 항공기를 통해 입국하는 경우 격리를 면제혜택과 함께, 현장 마케팅이 강화된다. 제주특별자치도는 방역 우수국가를 대상으로 현지 마케팅을 가동하고, 항공 접근성을 확보하는 등 포스트코로나 시대를 대비한 기반 마련에 나섰다고 22일 밝혔다. 현재 제주도는 11월 들어 내국인 입도 관광객이 일평균 4만대(잠정치)를 유지하는 등 전년 동기대비 회복 추세를 보이고 있다. 반면 외국인 관광객은 지난 2월 4일 무사증 일시 중지 이후 전년 동기대비 86.3%가 급감한 상태다. 이에 제주도는 약 2주 후 부터 싱가포르와 홍콩에서 항공편을 통해 입국하는 관광객에게 2주간 격리를 면제해주는 ‘에어 트래블버블(air travel bubble)’을 시행하는 한편, 제주도는 방역우수국가 현지 마케팅을 강화해 제주 지역 관광시장의 새로운 발판을 마련한다는 전략이다. 우선 향후 관광교류 재개 후를 대비해 잠재수요 고객층을 사로잡고 관광시장 우위를 선점하기 위해 중국, 대만, 일본, 동남아 등 해외 현지 관광홍보사무소를 중심으로 온·오프라인 마케팅을 진행하고 있다. 대만 타이베이 관광홍보사무소에서는 21일과 22일 제주 전통 음식인 빙떡과 오메기떡을 만드는 미식체험 교실을 개최하는가 하면, 유네스코 인류무형문화유산으로 등재된 제주해녀의 안전을 상징하는 태왁을 직접 만들어보는 이벤트를 진행하고 있다. 베트남 하노이 관광홍보사무소에서는 지난 18일부터 21일까지 5개국 약 200개 업체가 참가한 VITM(Vietnam International Travel Mart) 하노이 박람회에서 제주 홍보 부스를 운영하며 청정 자연과 숨은 명소를 소개했다. 말레이시아 쿠알라룸푸르 관광홍보사무소서는 유튜브 구독자 6만3천명, 인스타그램 팔로워 18만 2천명을 지닌 사브리나 등 한국에 거주하는 인플루언서와 함께 언택트 관광지에 대한 홍보 영상을 제작·송출하고 있다. 일본 관광홍보사무소에서는 코로나19 ‘지역감염 Zero’안전·청정 제주 홍보를 추진하고 있으며 한류 아이돌의 ‘힐링제주여행’특집 방송을 통해 근거리 휴양 관광지라는 이미지 제고에 주력하고 있다. 온라인 채널을 활용해 해외 여행전문가 1만명을 모집하고 제주 관광 전문가 교육 과정을 운영하는 등 글로벌 잠재 소비자들을 공략하기 위한 제주관광홍보 전문가도 양성하고 있다. 세계적으로 방역 우수 국가 간 트래블 버블 도입 추세에 발맞춰 항공 접근성도 강화할 방침이다. 김재웅 제주도 관광국장은“철저한 코로나19 방역을 기반으로 향후 트래블 버블 시행과 포스트 코로나시대를 준비중”이라며 “해외 관광 수요를 선점하고 제주가 최고의 글로벌 청정 관광지로 도약하기 위해 한 걸음 더 나아가도록 노력 하겠다”고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 185개 관광업체에 272억원 관광진흥기금 융자 지원 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 185개 관광업체에 272억원 관광진흥기금 융자 지원 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 185개 관광업체에 272억원 관광진흥기금 융자 지원 송고시간2020-11-05 11:14 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 (제주=연합뉴스) 고성식 기자 = 신종 코로나바이러스 감염증(코로나19)으로 경영난을 겪는 제주지역 관광업체들에 총 272억원 규모의 관광진흥기금이 융자 지원된다. 제주도청 [제주도 제공. 재판매 및 DB 금지] 제주도는 코로나19로 인해 경영난을 겪고 있는 관광업체를 지원하기 위해 하반기에 추가로 제주관광진흥기금 융자 지원 대상 업체 및 대출 지원 금액을 확정했다고 5일 밝혔다. 자금별로는 경영안정자금 183개 업체 243억원, 개·보수자금 2개 업체 29억원이다. 광고 도는 이번 융자 추천의 경우 행정처분 이력이나 융자금 중도 회수 이력 등과 관계없이 신청이 가능하도록 기준을 완화했다. 융자 추천 대상 업체는 도내 제주관광진흥기금 융자협약 금융기관을 방문해 신청하면 된다. 경영안정자금은 연말까지, 시설 개·보수자금은 내년 2월 말까지 대출을 실행하면 된다. 도는 지난 8월에도 1천494개 업체에 1천797억원의 제주관광진흥기금 융자지원 추천을 한 바 있다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/11/05 11:14 송고 #제주관광진흥기금 #융자 #지원 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>웰니스 관광하면 제주도 편도 항공권이 무료 TV LIVE VOD 튜브온 주요행사 채널안내 편성표 전체뉴스 MTN deep 한 발 더 깊고 한 걸음 더 넓은 뉴스 MTN hip요즘 뜨는 '힙(hip)'한 이슈 핫리포트핫라인5 생생리포트 MTN 인사이트경제에 통찰력을 더하다 MTN 기자실경제전문 기자들의 취재파일 연속 기획보도이슈를 파고드는 기획취재 연중대기획고품격 특집 다큐멘터리 여의도튜브 발칙한 경제 주식초등학교 Pick 튜브기사보다 더 깊은 이야기 TV LIVE VOD 튜브온 주요행사 채널안내 편성표 최신뉴스 산업 웰니스 관광하면 제주도 편도 항공권이 무료 머니투데이방송 유찬 기자 입력 2020-11-09 14:59:48 가 사진=하나투어 하나투어는 웰니스 관광상품을 이용하면 국내 항공권을 무료로 제공하는 프로모션을 진행한다고 9일 밝혔다. 웰니스(Wellness) 관광은 건강과 치유를 목적으로 떠나는 여행을 말한다. 하나투어는 문화체육관광부와 한국관광공사가 선정한 추천 웰니스 관광지를 대상으로 이번 프로모션을 기획했다. 9일부터 13일까지는 제주의 WE호텔 또는 취다선 리조트 1박 예약시 2인 제주 편도 항공권을 제공한다. 치유의 숲과 허브동산을 예약하는 경우에도 제주 편도 항공권을 지급하고, 서귀포 치유의 숲+제주 편도 항공권을 1,100원에 선보인다. 이밖에 16일부터 20일까지 경남 거제 벨버디어, 오도산 치유의 숲, 통영 나폴리 공원, 산청 동의보감존을 예약하면 김해 편도 항공권을 제공한다. 23일부터 27일까지 강원도 홍천 힐리언스 선마을, 동해 무릉건강숲, 정선 파크로쉬 리조트 등을 예약하면 지역 상품권을 증정한다. 유찬 머니투데이방송 MTN 기자 머니투데이방송의 기사에 대해 반론·정정추후 보도를 청구하실 분은 아래의 연락처로 연락주시길 바랍니다, 고충처리인 : 콘텐츠총괄부장 ombudsman@mtn.co.kr 02)2077-6288 MTN 기자실 경제전문 기자들의 취재파일 전체보기 Pick 튜브 기사보다 더 깊은 이야기 전체보기 많이 본 뉴스 분야별뉴스 취재와이드 MTN 기자실 Pick 튜브 바로가기 분야별뉴스 P4F MTN deep MTN hip 핫리포트 MTN 인사이트 연속 기획보도 연중대기획 MTN 기자실 Pick 튜브 여의도튜브 발칙한경제 주식초등학교 K-디펜스 월가워즈 여의도약방 니은티비 바로가기 검색 TV LIVE APP 소개 MTN YOUTUBE 회사소개 광고제휴안내 이용약관 청소년보호정책 개인정보처리방침 공시조회 (주)머니투데이방송    대표이사 유승호 (07328) 서울특별시 영등포구 여의나루로 60 (여의도동,여의도우체국) 2,4층 등록번호 : 서울 아01083    대표전화 : 02-2077-6200 기사배열책임자 콘텐츠총괄부장    청소년보호책임자 디지털기획부장 Copyright ⓒ MTN All Right Reserved</t>
+  </si>
+  <si>
+    <t>코로나19 관광산업 피해 심각 74.8%...제주도 잘한다 80% &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 코로나19 관광산업 피해 심각 74.8%...제주도 잘한다 80% 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 코로나19 관광산업 피해 심각 74.8%...제주도 잘한다 80% 기자명 이승록 기자					(leerevol@naver.com) 입력 2020.11.12 10:48 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도, '코로나19 방역대책 도민인식조사'...재난지원금 도움 81% 코로나19로 제주지역에서 가장 피해가 심각한 분야는 역시 '관광산업'이었다.또한 제주도민 10명 중 8명은 제주도의 코로나19 방역대책에 대해 '잘하고 있다'고 평가했다.제주도는 여론조사 전문기관인 리얼미터에 의뢰해 코로나19 대응 정책방향을 알아보기 위해 도민 1000명을 대상으로 지난 10월21일부터 28일까지 '제주도 코로나19 방역대책 도민 인식조사'를 실시하고 12일 결과를 발표했다.본인이나 같이 사는 가족이 코로나19에 감염될 가능성이 얼마나 높다고 생각하느냐는 질문에, 제주도민 4명 중 3명(75.6%)가‘감염될 가능성이 낮다’(낮은 편 53.2%, 매우 낮음 22.4%)고 응답한 반면, 코로나19 감염 가능성이 높다는 답변은 도민 4명 중 1명인 18.3%(매우 높음 2.4%, 높은 편 15.9%)에 그쳤다.코로나19가 학업, 직장, 생계, 여가 등 개인 생활 전반에 미친 피해가 얼마나 크다고 보느냐는 물음에는, ‘피해가 크다’는 응답이 63.3%(매우 큼 23.8%, 큰 편 39.5%)’로 조사됐으며, ‘피해가 작다’는 응답은 33.5%(작은 편 28.3%, 매우 작음 5.2%)로 집계됐다. ‘잘 모르겠다’는 응답은 3.2%였다. 직업에 따라서는 자영업에서 ‘피해가 크다’는 응답의 비율이 73.9%에 달해 가장 높게 나왔다.  코로나19로 인해 가장 심각한 피해를 입은 분야에 대해 조사한 결과,‘관광산업’이 54.6%로 가장 높았으며, 다음으로‘서비스업’(21.9%), 문화·예술분야(6.9%), ‘소매업’(5.7%), ‘농·축산·임·수산업 등 1차산업’(3.9%), ‘건설업’(3.9%) 순으로 조사됐다. 피해가 큰 분야로는 관광, 서비스업, 문화예술분야 순으로 조사됐다. 코로나19로 인해 가장 심각한 피해를 입은 분야 2가지를 선택해달라는 질문에는,‘관광산업’이라고 답한 응답자가 74.8%로 가장 많았으며, ‘서비스업’(59.9%), ‘문화·예술분야’(20.3%), ‘소매업’(18.6%), ‘건설업’(8.6%), ‘1차산업’(8.5%) 순으로 조사됐다. ‘기타’ 응답은 1.4%, ‘잘 모르겠다’는 2.5%로 집계됐다.제주도정의 코로나19 방역대책에 대해 ‘잘하고 있다’는 응답이 80.9%(매우 잘하고 있음 15.1%, 잘하는 편 65.8%)로 조사됐으며, ‘잘 못한다’는 응답은 14.1%(매우 잘 못함 2.7%, 잘 못하는 편 11.4%)에 불과했다. ‘잘 모르겠다’는 5.0%였다.서귀포시 동단위 지역에서 코로나19 방역정책을 ‘잘하고 있다’는 응답이 86.6%로 가장 높았으며, 제주시 동단위 지역(80.2%), 제주시 읍면단위 지역(79.8%), 서귀포시 읍면단위 지역(78.6%) 순으로 나타났다.코로나19에 대한 도민들의 방역수칙 준수에 대해서는‘잘 지키고 있다’라는 응답이 76.4%(매우 잘 지킴 13.3%, 잘 지키는 편 63.1%)로 조사됐으며, ‘잘 지키지 않는다’는 응답은 21.7%(전혀 지키지 않음 1.1%, 별로 지키지 않는 편 20.6%)로 집계됐다. ‘잘 모르겠다’는 1.9%.코로나19 방역대책의 원활한 추진을 위한 가장 중요한 주체가 누구라고 생각하느냐는 물음에 대해서는 ‘제주도민’(40.3%)이 가장 높게 나왔으며 ‘제주도청’(20.6%), ‘관광객’(15.3%), ‘중앙정부’(12.1%), ‘보건소·병원 등 의료기관’(7.9%) 순으로 나타났고, ‘잘 모르겠다’는 2.5%였다.제주도정의 방역대책 중 가장 실효성 있는 대책으로는‘공·항만 특별입도절차(발열감시, 워크스루 선별진료소)’가 39.2%로 가장 높았으며, ‘재난안전문자, SNS 등을 통한 실시간 코로나19 정보공개’(21.4%),‘한립읍, 게스크하우스, 산방온천 등 N차 감염 발생 우려 시 신속대응’(11.3%),‘감염병 취약지대 집중 방역관리’(6.4%),‘방역과 지역경제 상생 윈-윈 제주형 관광방역체계 구축’(5.5%), ‘공공시설 운영 중단’(4.4%), ‘민관 합동 제주형 방역 거버넌스 실현(우리 마을은 우리가 지킨다 등)’(3.8%) 순으로 조사됐다. ‘기타’는 1.9%, ‘잘 모르겠다’는 6.0%. 독감과 코로나19의 동시유행(트윈데믹)을 막기 위해 제주도민 전체를 대상으로 실시하는 무료 독감 예방접종의 필요성에 대해 무료 독감 예방접종이‘필요하다’는 응답이  88.7%(매우 필요 47.9%, 필요한 편 40.8%)로 집계됐고,‘필요하지 않다’는 응답은 8.9%(전혀 필요하지 않음 1.0%, 별로 필요하지 않음 7.8%)에 그쳤다. ‘잘 모르겠다’는 2.4%였다.제주형 재난긴급생활지원금의 실효성에 대해 ‘도움이 됐다’는 응답이 81.8%(매우 도움 29.6%, 약간 도움 52.2%)에 달했다.      제주형 재난긴급생활지원금이 생계유지에 도움이 되지 않는다고 답한 응답자(174명)를 대상으로 그 이유에 대해 구체적으로 물어본 결과, ‘금액이 너무 적어서’라는 응답의 비율이 43.7%로 가장 높았으며, 다음은‘소득이 급감한 대상자에 대한 지원이 부족해서’(37.9%), ‘지급 시기가 지연되어서’(3.5%) 순으로 조사됐다. 제주형 재난긴급생활지원금 지급방식에 대해서는‘현금’이 72.4%로 압도적으로 높게 나왔으며,‘지역화폐나 상품권’(13.9%),‘선불카드’(7.9%),‘카드 포인트’(4.1%)의 순으로 조사됐다.‘기타’는 0.6%, ‘잘 모르겠다’는 1.0%였다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도ㆍ제주도관광협회, 2020 제주안트레 개최 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도ㆍ제주도관광협회, 2020 제주안트레 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도ㆍ제주도관광협회, 2020 제주안트레 개최 기자명 오형석 기자 입력 2020.11.13 23:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 2020 제주안트레 행사 유튜브 썸네일 [시사매거진/제주] 제주도와 제주도관광협회(회장 부동석)는 오는 14일 오후 3시부터 오후 4시 30분까지 약 한 시간 반 동안 구좌읍 동복리 소재 공백카페 갤러리에서 '2020 제주안트레'행사를 개최한다. '안트레'는 '안으로'라는 뜻을 담고 있는 제주어이다. 제주지역 관광활성화를 위해 마련된 이번 행사는 제주 안에서 겪은 매력과 고유한 이야기를 공유하는 네트워킹 페스티벌이다. 지난 해 이어 올해에도 유명 인플루언서들과 함께 제주관광에 대해서 이야기하는 토크쇼 형태로 진행된다. 아프리카 BJ팀의 오프닝 공연을 시작으로 진행되는 2020 제주안트레 행사는 제주에 거주하는 인기가수 이재훈씨와 원희룡 도지사, 그리고 부동석 관광협회장의 '찐'제주이야기가 이어질 예정이다. 더불어 사우스카니발의 축하공연과 제주여행 소셜 콘텐츠 공모전 시상식이 진행된다. 이번 행사는 아프리카TV와 관광협회 공식 유튜브 채널을 통해서도 온라인 생중계된다. 코로나19로 인한 사회적 거리두기를 고려해 이날 행사는 유명 인플루언서 34명과 제주여행 소설 공모전 수상자 50명이 온라인으로 참석할 예정이다. 초청된 유명 인플루언서의 개인 SNS채널을 통해서도 실시간 라이브 중계가 이뤄질 예정이며, 이날 행사에 참여하는 34명의 인플루언서는 2021년 제주특별자치도관광협회 홍보대사로 위촉해 제주도를 알리는 역할을 당부할 계획이다. 한편 제주도관광협회는 지난 8월 4일부터 10월 7일까지 제주의 청정·공정·안전을 주제로 제주관광 이미지를 높이기 위한 소셜콘텐츠 공모전을 진행한 바 있다. 이를 통해 출품된 총 400여개의 작품 중 치열한 심사를 거쳐 최종 50개의 수상작을 선정했다. 김재웅 도 관광국장은 "코로나19로 인해 유명 인플루언서와 공모전 수상자 간의 네트워킹의 장으로 운영되는 제주안트레행사는 비대면으로 진행할 계획"이라며 "현장 참가자와 온라인 시청자들이 함께 제주에 대한 공감대를 형성하고, 향후 전국의 젊은 세대들이 참여를 희망하는 네트워킹 페스티벌로 발전시킬 수 있도록 노력해 나가겠다"고 밝혔다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '칭찬합시다' 베스트 관광인 선정! &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, '칭찬합시다' 베스트 관광인 선정! 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, '칭찬합시다' 베스트 관광인 선정! 기자명 오형석 기자 입력 2020.11.16 09:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 10월 베스트관광인 카멜리아힐 임태남 팀장 [시사매거진/제주] 제주특별자치도관광협회(회장 부동석)는 2020년 11월 12일(목) 제주종합비지니스센터 3층 대회의실에서“칭찬합시다” 이달의 베스트 관광인을 선정하고 선정패와 친절 키움 꽃 화분을 전달하였다. 이번 10월의 베스트 관광인으로 선정된 카멜리아힐 임태남 팀장은 카멜리아힐에서 10여년째 근무를 해왔으며 현재는 영업총괄 업무를 담당하고 있다. 오랜 근무 경험을 통한 노하우를 이용하여 관광객들에게 사계절 365일 다른 감동을 주기위해 노력하고 있다. 특히, 과거 제주특별자치도 ‘칭찬합시다’에서 칭찬 글이 올라올 만큼 관광객을 먼저 생각하여 편의와 감동을 주기위해 노력하는 모습이 주변 동종업계 종사자들로부터 모범이 되고 있어 10월의 베스트 관광인으로 선정되었다. 제주특별자치도 관광협회에서는 앞으로도 제주 관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정, 수범 사례를 공유하고 이를 계기로 제주 관광 종사자들의 친절 및 서비스 마인드를 한 단계 높여나감으로써“관광으로 만들어 가는 희망찬 제주”만들기에 앞장서 나갈 것이다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울국제관광박람회 제주홍보관 운영 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회, 서울국제관광박람회 제주홍보관 운영 파이낸셜뉴스입력 2020.11.10 09:51수정 2020.11.10 09:59 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 9~12일 언택트 여행·웰니스관광, 신혼여행, 골프관광 중점 홍보 2020 서울국제관광박람회 제주홍보관 【제주=좌승훈 기자】 제주도와 제주도관광협회(회장 부동석)는 9~12일 서울 강남구 세텍(SETEC)에서 개최되고 있는 '2020 서울국제관광박람회'(Seoul International Tourism Fair)에 참가해 제주홍보관을 운영하고 있다. 제주관광홍보관은 코로나19 이후 안전·청정관광을 추구하는 언택트 여행·웰니스관광, 다시 각광받고 있는 신혼여행, 고부가가치 골프관광을 중심으로 제주상품을 소개하고 있다. 또 관람객을 대상으로 제주관광 포토존 운영과 함께 SNS 바이럴 마케팅을 추진하고, 포토존에서 찍은 사진을 담은 나만의 머그컵 만들기 체험과 골프퍼팅 이벤트도 준비했다. 아울러 온라인 제주여행 쇼핑몰 연계 이벤트와 제주관광 기념품 할인판매와 같은 온·오프라인을 홍보활동도 동시에 펼치고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>[제주소식] 제주도관광협회, 단체 관광객 대상 삼다수 제공 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 [제주소식] 제주도관광협회, 단체 관광객 대상 삼다수 제공 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 [제주소식] 제주도관광협회, 단체 관광객 대상 삼다수 제공 송고시간2020-11-11 16:19 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 백나용 기자 기자 페이지 (제주=연합뉴스) 제주도와 제주도관광협회는 제주를 방문하는 단체 관광객을 대상으로 방역 활동과 환대서비스를 강화해 나가고 있다고 11일 밝혔다. 제주도관광협회, 단체 관광객 대상 제주 삼다수 제공 [제주도관광협회 제공. 재판매 및 DB 금지] 도와 도 관광협회는 공·항만 방역 활동과 마스크 착용 의무화 캠페인에 이어 제주 삼다수를 단체 관광객에게 제공하고 있다. 부동석 도 관광협회장은 "앞으로도 단체 관광객 유치를 위한 홍보마케팅 활동을 지속할 계획"이라며 "또 관광객 입도 동향을 분석해 다양한 안전 관광 프로그램을 개발해 나가겠다"고 말했다. 광고 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/11/11 16:19 송고 #제주 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 25 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 10 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 관광지별 안전도·혼잡도, 실시간으로 ‘한눈에’ - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광지별 안전도·혼잡도, 실시간으로 ‘한눈에’ 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광지별 안전도·혼잡도, 실시간으로 ‘한눈에’ 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.11.10 17:35 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 실시간 관광지혼잡도분석 서비스 개시 제주특별자치도와 제주관광공사(사장 고은숙)는 제주 방문 관광객들이 코로나19 걱정 없이 안전한 관광을 즐길 수 있도록 빅데이터 기술을 적극 활용한 ‘실시간 관광지혼잡도분석 서비스’를 시작한다고 10일 밝혔다. 이날부터 시범 운영한 후, 오는 23일 정식 오픈한다는 계획이다. ‘실시간 관광지혼잡도분석 서비스’는 통신사(SKT)의 기지국 데이터를 활용해 도민과 관광객들의 성별, 연령별 지역 분포도를 5분 단위로 업데이트해 제공한다. 실시간 현재 도민.관광객이 많이 있는 곳뿐 아니라 최근 3시간 동안 가장 많이 증가한 곳, 지난 24시간 동안의 통계를 통해 지역별 인기도와 혼잡도를 함께 확인할 수 있다. 이를 통해 ‘나와 비슷한 관광객들이 선호하는 여행지’의 한적한 시간대를 실시간으로 확인할 수 있도록 해 관광객들이 스트레스 없이 안전한 여행을 할 수 있도록 정보를 제공한다. 이 서비스는 제주관광공사가 운영하는 제주 공식 관광정보 포털 ‘비짓제주’ (visitjeju.net/kr/bigdatamap')에서 이용할 수 있으며, 향후에는 모바일과 응용프로그램(앱)으로도 제공할 예정이다. ‘실시간 관광지혼잡도분석 서비스’ 화면. 이와함께 관광객 분포도를 기반으로 관광객 맞춤형 추천서비스를 통한 지역 분산 마케팅과 관광업계 데이터와 융합한 분석 서비스를 추진하는 등 개별.비대면 관광트렌드에 맞는 다양한 관광 비즈니스가 창출되도록 지원할 계획이다. 제주관광공사는 국가 승인통계인 관광객 실태조사, 관광동향 보고서 뿐 아니라 신용카드, 내비게이션, 이동통신, 버스카드, 와이파이 등 다양한 빅데이터를 바탕으로 관광객 소비패턴 및 이동패턴 분석을 진행하고 있다. 이를 통해 데이터 기반의 관광정책 수립 지원으로 코로나19 이후 급변하는 관광객 수요를 수시 대응하고 있다. '제주방문 관광객 이동패턴 빅데이터 분석 연구’ 결과에 따라 △제주국제공항 △함덕해변 △성산일출봉.섭지코지 △표선해변 △서귀포시 구시가지 △중문관광단지 △협재.금능해변 △곽지.한담해변 등 8개 핵심클러스터를 중심으로 코로나19 방역클러스터를 구축·관리한 것처럼, 실시간 관광지혼잡도분석 서비스를 통해 제주형 관광방역 시스템이 더욱 효과적으로 구축·운영될 것으로 기대하고 있다. 제주관광공사 관계자는 “관광 실태의 수치적 관리뿐 아니라 빅데이터 분석 기반으로 체감할 수 있는 서비스를 제공함으로써 코로나19 이후 지역경제 활성화에 대한 도민 요구에 지속적으로 부응해 나갈 예정”이라고 말했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울국제관광박람회 '최우수 홍보상' 수상 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 서울국제관광박람회 '최우수 홍보상' 수상 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 서울국제관광박람회 '최우수 홍보상' 수상 김재연 기자 headlinejeju@headlinejeju.co.kr 승인 2020.11.15 15:25 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회는 지난 9일ㄹ부터 12일까지 서울 세텍에서 열린 '2020 서울국제관광박람회'에서 최우수 홍보상을 수상했다고 15일 밝혔다. 이번 박람회 제주관광홍보관에서는 코로나19 이후 안전관광을 추구하는 언택트 여행과 재조명 받고 있는 신혼여행, 고부가가치 골프관광 등 '안전하고 즐겁고 여유로운 제주여행'을 테마로 홍보해 관람객들의 호응을 얻었다. 제주도관광협회 관계자는 "앞으로도 '위드&amp;포스트 코로나'에 대응한 온·오프라인 홍보를 병행하면서 관광객 유치 마케팅을 전개해 나갈 계획"이라고 말했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 김재연 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 포스트 코로나 시대 제주관광 대응전략 마련 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 포스트 코로나 시대 제주관광 대응전략 마련 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 포스트 코로나 시대 제주관광 대응전략 마련 기자명 오형석 기자 입력 2020.11.13 23:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도 전경 [시사매거진/제주] 제주특별자치도는 13일 제주웰컴센터에서 제주관광공사, ICC Jeju, 제주컨벤션뷰로, 제주관광협회 관계자 등 20여명이 참석한 가운데 포스트 코로나 시대 제주관광 대응전략 마련을 위한 관광 유관기관·단체 합동 토론회를 개최했다. 이번 토론회는 코로나19가 장기화로 이어진 관광 산업의 침체 분위기를 회복하고, 관광업계 전반에 활력을 불어넣기 위해 관련 유관기관·단체의 협업체계를 논의키 위해 마련됐다. 특히, 정부의 사회적 거리두기 1단계 완화와 국내여행 활성화 조짐으로 제주방문 관광객이 회복되면서 관광객으로 인한 경제 활성화를 지역 구석구석으로 확산키 위한 주도적인 역할을 수립하기 위해 추진됐다. 이날 토론회에서는 △개별 및 단체관광객 유치 마케팅 △안전관광 △지역관광 활성화 △스마트 관광 △MICE산업 육성 방안 등을 집중 논의했다. 관광 유관기관·단체별로 정보공유를 위한 발표가 이뤄지며, 이후 중점 토론이 진행될 계획이다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[전문] 제주도의회 예산안 심사 입장 - 안창남 문화관광체육위원장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 제주도의회 예산안 심사 입장 - 안창남 문화관광체육위원장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 [전문] 제주도의회 예산안 심사 입장 - 안창남 문화관광체육위원장 편집팀 iheadline@hanmail.net 승인 2020.11.22 06:55 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × “ 팬데믹 현상 치유, 경제 회복을 위한 문화예술, 체육, 관광산업 예산 심층적 검토” 안창남 문화관광체육위원장. ⓒ헤드라인제주 올해는 코로나19로 인해 국내외를 비롯하여 사상 초유의 경제적 직격탄을 맞고 있습니다. 강력한 사회적 거리두기로 인해 관광시장·내수위축, 매출·고용률 감소까지 지역경기 하락은 지속되고 있고, 회복 기미는 요원하기만 합니다. 특히 제주는 관광 조수익이 차지하는 비율이 70% 이상 되고 있는 곳이기 때문에 그 타격은 매우 컸다고 할 수 있습니다. 도민생활과 직결되고 관광의 가장 큰 콘텐츠이기도 한 문화예술, 체육행사의 전면 취소는 1분기 서비스업생산 –10.3%, 소매판매 -14.8% 등 전국 최고의 감소치를 보여 도민전체가 우울한 상황을 보내고 있습니다. 내년에도 제2차 팬데믹이 사실상 현실화 되면서 경제활성화는 낙관적이지 못합니다. 그럼에도 문화예술과 체육이 침체된 관광산업의 회복을 위한 동력으로 작용할 것이란 기대에도 불구하고 2021년 총괄예산 증액 대비 기능별 문화 및 관광예산은 오히려 –9.72%가 감소편성 되고 있습니다. 특히 내년 예산안 편성은 팬데믹 시기에 제주관광 체질개선과 문화예술의 섬 조성에 맞춰 코로나 블루를 극복 할 수 있는 예산편성이 전제되어야만 합니다, 그렇지 못한 선제적 대응의 문제점 속에서 문화관광정책을 위한 실질적인 예산이 맞는지, 파급효과와 현실성, 재정의 안정성을 판단하면서 정책제안을 통해 사업의 타당성을 검토하겠습니다. 이번 심사는 민선 7기 중간 점검의 적기이자, 팬데믹 현상에 대응한 정책방향을 재확인 할 기회가 될 것입니다. 특히 팬데믹을 빌미로 타당성이 결여된 사업과 실적 쌓기식 공약 추진 등 예산낭비 요인이 없는지 실효성과 지속성을 토대로 철저히 분석, 심의해 나가겠습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>베트남-제주도 관광산업 활성화 등 우호 협력․교류 강화 &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 베트남-제주도 관광산업 활성화 등 우호 협력․교류 강화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 베트남-제주도 관광산업 활성화 등 우호 협력․교류 강화 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2020.11.10 13:45 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 주한 베트남대사, 제주도의회 방문 및 우호교류 방안 논의 응웬부동 주한 베트남 대사 일행이 10일 오전 좌남수 제주특별자치도의회 의장을 예방하고 양국의 발전 방안을 논의했다.ⓒ제주의소리관광대국 베트남과 대한민국 관광 1번지 제주도가 관광산업 활성화를 위해 우호교류를 강화한다.주한 베트남 대사 응우엔부뚱은 10일 오전 11시 제주특별자치도의회를 예방해 좌남수 의장, 현길호 농수축경제위원장과 양국간 다양한 분야에 대한 협력방안을 논의했다.이번 면담에는 주한 베트남 대사를 비롯한 대사관 관계자와 한베콘텐츠협회(회장 전충헌), 한국농업마이스터 협회(회장 현성익) 등 한-베트남간 민간교류단체도 같이 참석했다. 양국간 경제, 투자, 관광, 첨단기술 농업 등 다양한 분야의 협력방안을 논의하였으며, 향후 베트남과 제주도간 우호교류를 위해 적극 노력하기로 하였다.이날 간담회에서는 베트남과 제주도 우호교류 방안 외에 △베트남 연수 및 농업인 취업환경 조성 공동 노력 △제주 및 베트남 관광산업 활성화 △베트남 주요도시에 제주특산품 명품 홍보관 설치지원 △인적교류 활성화를 위한 공동의 노력 등이 논의됐다.좌남수 의장은 “하루 속히 코로나19가 끝나 베트남과 제주를 자유롭게 오갈 수 있는 시대가 되기를 바라며, 이번 간담회를 통해 베트남과 제주 간의 우호교류를 강화하는 계기가 될 것”이라고 말했다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회, 10월의 베스트 관광인 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 제주도관광협회, 10월의 베스트 관광인 선정 김형훈 기자 승인 2020.11.15 17:57 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 케멜리아힐 임태남 팀장. 카멜리아힐 임태남 팀장이 10월 베스트 관광인으로 선정됐다. 제주특별자치도관광협회는 최근 임태남 팀장에게 선정패와 키움 꽃 화분을 전달했다. 임태남 팀장은 카멜리아힐에서 영업총괄을 맡고 있으며, 오랜 근무 경험 노하우를 활용해 관광객들에게 색다른 감동을 전달하고 있다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울국제관광박람회 참가 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 서울국제관광박람회 참가 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 서울국제관광박람회 참가 기자명 홍석형 기자 입력 2020.11.09 12:09 수정 2020.11.09 12:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 포스트 코로나 제주테마여행 홍보 제주도와 제주특별자치도관광협회(회장 부동석)는 11월 9일부터 12일까지 4일간 서울 세텍에서 개최되는 2020 서울국제관광박람회에 참가해 제주관광홍보관을 운영하고 있다고 밝혔다.이번 제주관광홍보관에서는 코로나19 이후 안전관광을 추구하는 언택트 여행, 재각광을 받고 있는 신혼여행, 고부가가치 골프관광 등 안전하고 즐겁고 여유로운 제주여행을 테마로 홍보하고 있다.또한, 관람객을 대상으로 제주관광 포토존 운영을 통해 SNS 바이럴 마케팅을 추진하고 포토존 촬영사진을 담은 나만의 머그컵 만들기 체험과 골프퍼팅 이벤트 등을 진행한다.이와 더불어 온라인 제주여행 쇼핑몰 연계 이벤트와 제주관광 기념품 할인판매 등 온.오프라인을 동시에 활용한 홍보활동을 펼치고 있다.앞으로도 관광협회에서는 온라인으로 개최되는 내나라여행박람회(12월 예정)에 참가해 내국인 관광객 유치 확대를 위한 제주관광 마케팅을 지속적으로 전개해 나갈 예정이다. 홍석형 기자 hsh8116@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 늦가을 관광객 유치 사활  &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 늦가을 관광객 유치 사활 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 늦가을 관광객 유치 사활 기자명 이은지 기자 입력 2020.11.05 10:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 인센티브 4억원 추가 투입 전세버스 등 차량료 지원 제주도가 코로나19로 직격탄을 맞은 관광업계의 조기 정상화를 위해 늦가을·겨울 관광객 유치에 나선다. 제주도는 도내 여행업체를 대상으로 늦가을·겨울 관광객 유치를 위한 기금예산 4억원을 추가 투입한다고 5일 밝혔다. 늦가을 단체관광객들이 제주를 찾으면서 전세버스 이용 때 2좌석 1인 분산탑승 유지에 따라 발생하는 추가 차량료를 보전하는 '단체여행객 안전여행 서비스 운영 지원' 사업을 시행할 계획이다. 문화체육관광부가 지난달 말부터 관광 분야 숙박·여행 소비할인권 제공을 재개한 데 따라 여행 소비할인권 지원 사업에 공모를 거쳐 선정된 제주여행상품업체를 대상으로 1인 1만원의 할인금액을 추가로 지원한다. 아울러 '당신이 몰랐던 제주여행'을 주제로 오름과 억새, 귤밭, 향토 음식 등 제주에서만 즐길 수 있는 숨은 명소와 먹거리 등을 소개하는 279편의 콘텐츠를 제작해 선보이고 있다. 김재웅 도 관광국장은 "제주를 방문하는 여행객들이 철저한 개인 방역을 준수할 수 있도록 관광업계 협업으로 여행에 있어 '방역'이 일상이 되는 사회적 분위기를 조성해 나가겠다"고 말했다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[제주도의회 쟁점] 전세버스 도산위기…관광지 순환버스 20억 투입 논란 &lt; 정치/행정 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [제주도의회 쟁점] 전세버스 도산위기…관광지 순환버스 20억 투입 논란 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치/행정 [제주도의회 쟁점] 전세버스 도산위기…관광지 순환버스 20억 투입 논란 기자명 임아라 기자 입력 2020.11.19 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 전세버스 13개월 운행 정지상태 “지원없으면 더 이상 못버틴다” 코로나19로 도내 전세버스 업체가 줄줄이 도산위기에 놓인 가운데 탑승률이 저조한 관광지 순환버스에 연 20억의 예산을 투입하고 있어 논란이 일고 있다. 19일 열린 제주도의회 도정질문에서 문경운 의원(비례대표)은 코로나19 피해 분야 중 관광업계의 74.8%가 피해가 크다고 인식한다는 조사 결과로 서두를 열며 관광업계의 어려움과 지원의 필요성을 주장했다. 문 의원은 가장 큰 타격을 입은 전세버스 업자의 인터뷰 영상을 통해 원희룡 도지사에게 관광업계가 처한 상황과 요구사항을 전했다. 전세버스 업자는 인터뷰를 통해 “경영악화로 전부 도산위기에 놓여있다”고 말했다. 이어 “대구는 재난특별지구로 지정해 전세버스 회사에 버스 한대 당 50만원을 지원했으며, 타 시도에서도 기사들에게 50만원씩을 지원하는데. 제주도는 프리랜서 기사들이 50만원씩 세 번 지원받은 것 외에는 전혀 아무런 지원도 없다”며 어려움을 토로했다. 또 “수학여행 시즌인 작년 10월 이후 13개월 이상 정지상태”라며. “업체가 살아야만 직원들도 꾸릴 수 있으니 지원금을 바란다”고 강조했다. 덧붙여 “전세버스는 죽어가고 있는데 관광지 순환버스는 필요 없는 자금이 계속 투입하고 있다. 그 기금을 전세버스 업계에 지원해달라”고 주장했다. 이와 관련한 문 의원의 질의에 원 지사는 “현재 도내 관광지 순환버스는 18대가 운영 중이며 연 20억의 예산이 투입된다”고 밝혔다. 이어 “현재 다각도로 관광업계를 지원하기 위해 검토 중”이라고 답변했다. 이에 문 의원은 “관광지 순환버스의 이용률이 저조한데 반해 그에 들어가는 예산은 혈세 낭비”라고 지적하며 “한시적으로 순환버스를 운영을 중단하고 거기에 투입하는 예산을 전세버스 업계에 지원하는 것을 업계가 바라고 있다”고 밝혔다 한편 도는 지난 12일 제주도개발공사가 재해구호기금으로 기부한 200억을 3차 재난지원금으로 편성했으며, 그 중 25억을 도내 여행사와 전세버스 업계에 경영자금으로 지급할 예정이다. 임아라 기자 ara4908@daum.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 20일 ‘범도민 위기극복 관광산업협력분과협의회 3차회의’ 개최 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 카카오채널 RSS 모바일보기 맑음서울 15.0℃ 구름조금제주 19.7℃ 구름많음고산 16.7℃ 구름조금성산 17.9℃ 구름많음서귀포 19.7℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도, 20일 ‘범도민 위기극복 관광산업협력분과협의회 3차회의’ 개최 임의순 기자 jejutwn@daum.net 등록 2020.11.20 10:44:34 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주도는 지난 20일 오후 2시 제주웰컴센터에서 코로나 시대 제주관광산업 대응전략을 마련하기 위한 ‘범도민 위기극복 관광산업협력분과협의회 3차회의’를 개최한다고 밝혔다.범도민 위기극복 관광산업협력분과협의회의는 코로나19 장기화로 인한 관광 산업의 침체 분위기를 회복하고 관광업계 전반에 활력을 불어 넣는 방안을 관광 유관기관, 단체, 업계 등이 논의하기 위해 마련됐다.이날 회의에는 제주도관광협회, 제주관광공사, 제주관광학회, 호텔전문경영인 협회, 숙박업중앙회, 외식업중앙회, 국내여행사협회, 서귀포시관광협의회 등 30여 명이 참석한다.이번 회의에서는 코로나19 발생 이후 제주관광의 현 실태와 추진상황을 점검하고, 위드 코로나 시대 관광산업 활력화를 위한 대책 방안 등을 중점 논의할 방침이다.특히, 철저한 방역을 기반으로 웰니스, 경관중심 체험형 분산관광, 스마트 관광 강화, 어려운 관광 영세업체 지원 방안을 비롯해 관광업체 및 종사자 자체 위생 및 방역 강화, 관광산업의 체질개선 방안 등을 모색할 예정이다.제주교통복지신문, JEJUTWN 임의순 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 2 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 3 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 4 제주특별자치도, 11일부터 코로나19 2가백신 동절기 추가접종 시작 5 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 6 서귀포시 동부보건소, 가을철 농작업 및 야외활동 시 진드기 조심하세요! 7 제주시, 6.25 참전유공자 유족 무성화랑 무공훈장 수여 8 제주시, 오는 11월 24일부터 '일회용' 종이컵·빨대 등 제공 및 사용 금지한다 9 한국미술협회 서귀포지부, 2022 회원 정기전 진행 10 제주시 한경도서관, '냅킨 아트 소품 클래스' 프로그램 참여자 선착순 모집 실시간 뉴스 2022-10-11_TUE 서귀포시, 사무관 승진의결자 8명 승진임용 11:33 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 11:32 서귀포시 성산읍, 가로등에 디자인을 입혀 불법광고물을 뿌리 뽑는다 11:31 서귀포시, 다양한 국가의 진로 탐색으로 청소년의 꿈의 시야를 넓히다. 11:30 서귀포시, 2022년 하반기 주민등록 사실조사 실시 11:26 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 11일 14시 51분 최상단으로</t>
   </si>
   <si>
     <t>제주도관광협회 ‘세계관광의 날’ 기념식…유공자 표창 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회 ‘세계관광의 날’ 기념식…유공자 표창 파이낸셜뉴스입력 2020.11.04 07:06수정 2020.11.04 07:06 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 【제주=좌승훈기자】 제주도관광협회(회장 부동석)는 3일 제주시 용담레포츠공원에서 도내 관광 종사자와 유관기관 관계자가 참석한 가운데 제47회 ‘세계관광의 날’ 기념식을 가졌다. [사진] 이날 행사는 코로나19 사태에 따라 제주형 특별 방역 행정조치를 준수해 열린 가운데, 제주 관광 진흥 유공자에 대한 표창(제주도지사 12명, 제주도의회 의장 3명, 제주도관광협회장 3명)이 수여됐다. 부동석 회장은 기념사를 통해 “포스트코로나 시대를 대비해 국내 관광시장에서 단체 관광객 유치 마케팅을 강화하고, 영세 관광사업체 경영 환경 개선을 위한 각종 제도 개선과 행정적 지원 시스템 구축을 지속적으로 건의해 나가겠다”고 밝혔다. 매년 세계관광의 날과 연계해 시행됐던 제주 관광인 한마음대회는 올해 관광업종별 대표자들 중심으로 참가 인원 100명 이내로 제한해 기념식만 개최했다. 이날 행사에서는 청정 제주관광 실현을 위한 캠페인의 일환으로 공항과 항만에서 관광객 대상 마스크 착용 홍보와 함께 관광지 환경정화 봉사활동을 전개했다. 한편 세계관광의 날은 국제연합(UN) 산하의 세계관광기구(UNWTO)가 지정한 국제 기념일 중 하나다. 1980년부터 관광산업 발전을 다짐하고, 그 중요성을 널리 알리기 위한 목적으로 매년 기념행사를 개최하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
   </si>
   <si>
-    <t>제주도내 관광사업체 대상 유관기관 합동 현장점검 실시 &lt; 국내 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-04 11:15 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도내 관광사업체 대상 유관기관 합동 현장점검 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 국내 제주도내 관광사업체 대상 유관기관 합동 현장점검 실시 기자명 백상원 입력 2020.11.09 14:16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 대한민국 숙박대전 운영 따라 관광업체 공정가격 형성·코로나19 방역상황 점검 사진= 제주특별자치도[투어타임즈=백상원 기자] 제주특별자치도는 지난 4일부터 ‘대한민국 숙박대전’이 진행됨에 따라, 도내 관광사업체를 대상으로 공정가격 형성 및 방역체계 운영상황에 대한 유관기관 합동 현장점검을 실시하고 있다고 밝혔다. 제주도는 관광숙박업소 등 사업체의 불공정요금 방지와 코로나19로부터 안전한 제주를 유지하기 위해 관광사업체 자체 자정운동과 함께 민·관 합동 지도점검을 강화한다. 또한, 제주도 관광협회 및 회원사, 관광사업체와의 협력체계 구축을 통해 민간 자율적인 공정가격 받기를 유도한다. 아울러 관광사업체 객실요금 등 관련 요금에 대한 온라인 모니터링과 제주관광 불편 해소를 위한 도지사 직속 ‘원 지사 핫라인 관광불편 신고센터’를 통해 접수되는 고액 요금 등 불공정 행위는 자치경찰단과 합동으로 지도점검을 추진할 예정이다. 특히 행사기간 제주를 찾는 관광객이 늘어날 것으로 예상됨에 따라, 코로나19로부터 방문객들이 안전하게 지낼 수 있도록 관광사업체 대상 민관합동 방역 상황점검과 마스크 착용 의무화 및 핵심방역수칙 준수사항에 대한 현장 지도점검을 강화할 방침이다. 문화체육관광부와 한국관광공사가 주관하는 ‘대한민국 숙박대전’은 지난 11월 4일부터 12월 23일까지 진행되며 객실가격에 따라 3만원권과 4만원권 2종류의 할인쿠폰이 100만매가 발행된다. 할인쿠폰은 인터파크 투어 및 야놀자, 여기어때 등 24개 온라인여행사를 통해 받아 할인 적용을 받을 수 있다. 시간 내 미사용하거나 예약취소 시 자동으로 무효 처리되며 쿠폰 소진 시까지 재발급도 가능하다. 한편 도에서는 추가예산 2억원을 투입해 여행소비할인권 지원사업체 선정된 제주여행상품업체를 대상으로 1인 1만원의 추가할인을 지원하고 있다. 이번 ‘대한민국 숙박대전’을 통해 코로나19 지속에 따른 관광분야 사업체시설 고정비용과 인건비 등 경영난을 겪고 있는 관광사업체와 종사자들에 대한 도내 관광 내수시장 활성화에 도움이 될 것으로 기대하고 있다. 김재웅 도 관광국장은 “‘관광객과 도민이 안전한 관광제주’ 조성을 위해 공·항만 및 도내 관광사업체를 대상으로 자율방역 시스템 구축과 방역현장 점검활동을 지속 추진해 나가겠다”고고 말했다. 백상원 baekshark@sundog.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 올해 하반기 제주관광진흥기금 융자추천 대상 확정 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-04 11:15 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도, 올해 하반기 제주관광진흥기금 융자추천 대상 확정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 제주도, 올해 하반기 제주관광진흥기금 융자추천 대상 확정 기자명 백상원 입력 2020.11.05 15:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 제주관광진흥기금 운용심의위원회 거쳐 총 185개 업체·272억원 규모 지원 사진= 제주특별자치도[투어타임즈=백상원 기자] 제주특별자치도는 2020년 하반기 제주관광진흥기금 융자추천 대상을 총 185개 업체·272억원 규모로 확정했다고 밝혔다. 제주도는 지난 10월 29일 제주관광진흥기금 운용심의위원회를 개최해 이 같은 내용을 심의·의결했다. 제주도는 9월 28일부터 10월 16일까지 융자 신청 접수를 한 결과 총 199건·289억원이 신청 접수됐다. 자금별로는 경영안정자금 197개 업체·260억원, 개·보수자금 2개 업체·29억원이다. 경영안정자금분야는 접수된 197개 업체·260억원 중 타 기금 중복 지원 등의 사유로 14개 업체·46억원이 제외돼 최종 183개 업체·243억원을 확정했다. 또한, 시설 개·보수자금 2개 업체·29억원은 특이사항이 없어 전액을 융자추천하기로 결정했다. 제주도는 이번 하반기 관광진흥기금 특별융자를 통해 코로나19로 경영난을 겪고 있는 관광사업체 지원을 위해 융자 금액 한도 내에서 상반기 대출 실행한 금액을 제외한 나머지를 추가로 융자 추천했다. 특히 이번 융자 추천은 행정처분 이력, 융자금 중도회수 이력 등과 관계없이 신청이 가능하도록 신청 기준이 완화됐다. 융자 추천대상자로 선정된 업체는 제주도내에 소재한 제주관광진흥기금 융자협약 금융기관을 방문해 신청하면 된다. 다만, 경영안정자금은 오는 12월 31일까지, 시설 개·보수 자금은 내년 2월 28일까지 대출을 실행해야 한다. 김재웅 도 관광국장은 “도내 관광업체들이 코로나19 위기상황 속에서 경영안정자금 융자 지원과 관광사업체 시설개선을 통해 경쟁력을 확보할 것으로 기대한다”고 말했다. 이어 융자 지원 제도개선 등을 통해 도민들이 실질적인 혜택을 받을 수 있도록 기금운용 정책을 발굴해 지속 추진하겠다“고 덧붙였다. 백상원 baekshark@sundog.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>JIBS | 전체 뉴스기사 장애인 서비스 광고/협찬 안내 회원가입 로그인 뉴스 뉴스 다시 보기 뉴스 기사 보기 보도 프로그램 뉴스제보 TV 정규프로그램 특집프로그램 종영프로그램 수어프로그램 라디오 김민경의 Now JEJU 동네방송 최재혁의 6시 이정민의 NEW POWER FM 편성표 in제주 60seconds 슬로우TV 제주 시청자센터 시청자 참여 시청자 위원회 시청자 고충처리제도 방송수신안내 공지사항 개인정보취급방침 공지사항 JIBS취재윤리강령 JIBS투어 뉴스 다시 보기 뉴스 기사 보기 보도 프로그램 뉴스제보 (제주) 제주도 가을·겨울 관광객 유치 총력 2020-11-05 JIBS 이효형 기자 글자크기 + - 제주자치도가 관광업계 활성화를 위한 총력 지원에 나섭니다.제주도는 4억원을 들여 늦가을과 겨울에 맞춘 국내 관광객 유치에 나선다고 밝혔습니다.우선 전세버스 이용시 두 좌석에 1명만 앉도록 하는 분산 탑승에 따른 차량료를 보전해줍니다.또 정부의 숙박여행 소비할인권에 따라 공모를 거쳐 선정된 제주여행 상품에는 1만원의 할인을 추가로 제공합니다. JIBS 이효형 기자 &lt;저작권자 © JIBS 제주방송, 무단 전재 및 재배포 금지&gt; 관련기사 목록 최신 뉴스 ∙︎ “공공서비스 민영화는 국가책임 포기”..노동단체 입법 운동 ∙︎ 병원 응급실서 의료진 폭행 60대 현행범 체포 ∙︎ "하루가 급한데.." 개인파산 결정 제주서 가장 오래 걸려 ∙︎ 10월 열대야 기록할라...23년 만에 가장 '높은' 최저기온 ∙︎ 횡단보도 건너던 여중생 치어 숨지게 한 택시기사 입건 ∙︎ 제주 신규확진자 102명.. 감소세 계속 ∙︎ [제주날씨] 구좌 낮 기온 31.2℃.. 내일부터 점차 기온 뚝 많이 본 뉴스 ∙ 마지막 코로나19 소상공인 손실보상금 접수 개시 ∙ 내일부터 '입국 1일차 PCR검사 해제'.."방역조치 모두 사라져" ∙ '해고를 막아?' 사측에 찍힌 병원 직원 강등 ∙ 하늘길 열리니, 항공 ‘채용 가뭄’도 풀릴까 ∙ [日 직항 뜨니 ‘큰손’ 컴백] ① 문 닫았던 카지노 '활짝' ∙ 한라산 단풍, 11월 2일 가장 '절정' ∙ 회화적 언어로 직조한 상상력 혹은 공감의 미학 회사 소개 JIBS방송편성규약 JIBS취재윤리강령 개인정보처리방침 시청자고충처리 시청자위원회 방송수신안내 오시는길 사이트맵 JIBS Family NOW제주TV NOW제주Plus JIBS아나운서 JIBS문화장학재단 지역민영방송 SBS 강원민방 광주방송 대구방송 대전방송 부산방송 울산방송 전주방송 청주방송 우)63148 제주특별자치도 제주시 연삼로 95 (오라삼동) 대표전화 : 064)740-7800 팩스 : 064)740-7859 문의 : webmaster@jibs.co.kr CopyRight.2002 JIBS. ALL RIGHTS RESERVED</t>
-  </si>
-  <si>
-    <t>제주도, 관광객 유치 시동 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이제주도, 관광객 유치 시동 오승철2020년 11월 06일 07시 20분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도가 코로나19로 침체에 빠진 관광업계 활성화를 위해 강력한 방역 태세를 전제로 관광객 유치에 나섭니다. 전세버스는 승객을 절반만 태워 거리두기를 하도록 하고, 이에 대한 비용 손실분을 지원해 주기로 했습니다. 또, 문화체육관광부가 주관하는 숙박과 여행 할인권 제공사업에 선정된 제주 여행상품에 대해서 1인당 만 원을 추가 지원하고, 제주의 가을과 겨울을 주제로 한 홍보물 279편을 제작해 선보이고 있습니다. 오승철ogija@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초제주도, 관광객 유치 시동 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>제주도, 관광객 유치 시동 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도, 관광객 유치 시동 오승철2020년 11월 05일 20시 10분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도가 코로나19로 침체에 빠진 관광업계 활성화를 위해 강력한 방역 태세를 전제로 관광객 유치에 나섭니다. 전세버스는 승객을 절반만 태워 거리두기를 하도록 하고, 이에 대한 비용 손실분을 지원해 주기로 했습니다. 또, 문화체육관광부가 주관하는 숙박과 여행 할인권 제공사업에 선정된 제주 여행상품에 대해서 1인당 만 원을 추가 지원하고, 제주의 가을과 겨울을 주제로 한 홍보물 279편을 제작해 선보이고 있습니다. 오승철ogija@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초제주도, 관광객 유치 시동 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 서울국제관광박람회 최우수 홍보상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 서울국제관광박람회 최우수 홍보상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 서울국제관광박람회 최우수 홍보상 김지우 기자 승인 2020.11.15 12:39 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 부동석)는 지난 9일부터 12일까지 서울 서울 강남구 세텍(SETEC)에서 개최된 2020 서울국제관광박람회에 참가해 최우수 홍보상을 수상했다고 15일 밝혔다. 제주도관광협회는 제주관광홍보관을 운영하고 코로나19 이후 안전관광을 추구하는 언택트 여행과 재각광을 받고 있는 신혼여행, 고부가가치 골프관광 등 ‘안전하고 즐겁고 여유로운 제주여행’을 테마로 홍보해 관람객들에게 큰 호응을 얻었다. 제주도관광협회 관계자는 “포스트 코로나 시대에 대응한 온·오프라인 홍보를 병행하면서 관광객 유치 마케팅을 전개해 나갈 계획”이라고 밝혔다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, '사회적 거리두기' 따른 관광버스 분산탑승 비용 지원 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, '사회적 거리두기' 따른 관광버스 분산탑승 비용 지원 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, '사회적 거리두기' 따른 관광버스 분산탑승 비용 지원 현대성 기자 승인 2020.11.05 10:03 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도가 사회적 거리두기에 따른 관광버스 분산탑승 비용을 지원하는 등 늦가을·겨울 관광객 유치에 나선다. 제주도는 코로나19로 직격탄을 맞은 관광업계의 조기 정상화를 위해 도내 여행업체를 대상으로 관광객 유치를 위한 기금 예산 4억원을 투입한다고 5일 밝혔다. 제주도는 최근 늦가을 단체 관광객이 제주를 찾고 있음에 따라 전세버스 이용 시 '2좌석 1인 분산탑승'에 따라 발생하는 추가 차량 이용료를 보전할 계획이다. 이어 문화체육관광부가 지난달 말부터 관광분야 숙박·여행 소비할인권 제공을 재개함에 따라 여행 소비할인권 지원 사업 공모를 거쳐 선정된 제주여행상품업체를 대상으로 1인 1만원의 할인 금액을 추가로 지원한다. 제주도는 아울러 '당신이 몰랐던 제주여행'을 콘셉트로 오름과 억새, 귤밭, 향토음식 등 오직 제주에서만 즐길 수 있는 숨은 명소와 먹거리 등을 소개하는 279편의 콘텐츠를 제작해 선보이고 있다. 김재웅 제주도 관광국장은 "제주를 방문하는 여행각들이 철저한 개인 방역을 준수할 수 있도록 관광업계와 협업해 여행에 있어 '방역'이 일상이 되는 사회적 분위기를 조성해 나가겠다"고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>성산포수협 활어위판장, 제주도 새 명소로 떠올라...성산일출봉·우도 등 관광코스도 인접 UPDATED : 2022-10-04 (화) 검색 홈 산업 경제 건설·부동산 유통 정치 사회 연예·스포츠 전국 오피니언 보도자료 기업PR 호텔 성산포수협 활어위판장, 제주도 새 명소로 떠올라...성산일출봉·우도 등 관광코스도 인접 성산포수협, 11월 18일~12월 25일 성산포 은갈치 특별할인 판매 주서영 기자 2020-11-26 21:43:16 프린트하기 이메일보내기 가 가 성산포수협 활어위판장[스마트에프엔=주서영 기자] 제주특별자치도 성산포 어업인들의 숙원 사업인 성산포항 활어위판장 건립 사업이 2년 여 간의 공사를 마치고 지난달 15일 문을 연 이후 제주도의 새로운 관광코스로 떠오르고 있다. 성산포수협 활어 위판센터는 성산포항 내 지상 4층, 지하 1층 대지 762평, 건축연면적 1천797평 규모로 조성됐다. 성산포수협 활어위판센터는 4층 건물로 1층에는 활어 위판장 및 활어판매장, 2층 고급일식집 및 커피전문점, 3층 활어 회센터, 4층 수산물 홍보관으로 이뤄져있다. 성산포항 활어위판장 개장을 통해 갓 잡은 신선한 활어를 판매할 수 있어 제주도민들은 물론, 관광객들이 품질 좋은 활어를 구입할 수 있다. 이처럼 방문객들이 싱싱한 활어를 즐길 수 있는 관광어시장형 회센터로 조성됨에 따라 성산일출봉과 우도, 섭지코지 등 주변 관광지와 연계한 어촌 관광자원으로 자리 잡을 수 있을 것으로 기대된다. 성산포수협 제공 한편 성산포수협은 이달 18일부터 12월 25일까지 성산포 은갈치 특별할인 판매를 진행한다. 선동갈치(18~19미)를 2만원 할인된 20만원에 판매한다. 자세한 사항은 성산포수협 홈페이지를 참고하면 된다. [주변 관광지] 성산일출봉. 제주도청 제공◇성산일출봉 높이 180m의 성산일출봉은 약 5천 년 전 얕은 바다에서 일어난 수성화산 활동으로 형성된 응회구이다. 지하에서 올라온 뜨거운 마그마와 물이 만나 격렬하게 반응하면서 분출된 화산재가 쌓여 일출봉이 형성됐다. 수성화산 분출 당시 화산체의 모습을 그대로 잘 간직하면서 화산재가 겹겹이 쌓인 퇴적 구조를 선명하게 보여준다. 거대한 성의 모습을 닮아 성산(城山)이라 부르던 이곳은 해 뜨는 모습이 아름답다는 의미가 더해져 지금은 성산일출봉(城山日出峰)이라 부른다. 우도. 제주도청 제공◇우도 우도는 성산일출봉에서 북동쪽으로 약 3 km 떨어져 있으며 섬의 중앙에는 화산재로 이루어진 소머리오름 응회구(우도봉)가 있고 마을이 형성된 북서 방향으로 넓은 용암대지가 발달해 있다. 우도에는 다양한 종류의 해변이 존재한다. 특히 서빈백사로 알려진 흰색의 홍조단괴 백사장이 있다. 홍조단괴는 성산과 우도 사이의 얕은 바다에서 작은 핵을 중심으로 석회성분을 만드는 홍조류가 구르면서 둥글게 성장한 것이다. 이런 독특한 가치로 인해 홍조단괴는 국가지정문화재로 지정됐다. 섭지코지. 제주도청 제공◇섭지코지 제주 동부해안에 볼록 튀어나온 섭지코지는 성산 일출봉을 배경으로한 해안풍경이 일품이다. 들머리의 신양해변백사장, 끝머리 언덕위 평원에 드리워진 유채밭, 여유롭게 풀을 뜯는 제주조랑말들, 바위로 둘러친 해안절벽과 우뚝 치솟은 전설어린 선바위 등은 전형적인 제주의 아름다움을 만날 수 있다. 섭지코지의 섭지란 재사(才士)가 많이 배출되는 지세라는 뜻이며 코지는 육지에서 바다로 톡 튀어나온 '곶'을 뜻하는 제주방언이다.주서영 기자 news@smartfn.co.kr &lt;저작권자 © 스마트에프엔, 무단 전재 및 재배포 금지&gt; # 관련 태그 #성산포수협 #성산일출봉 #우도 이 기사를 공유하세요. 페이스북 트위터 카카오스토리 메일 채널 S [영상]현대차 2022 영동대로 카운트다운 2021.12.31 [영상]넥슨 '카트라이더' 겨울 업데이트 티저 영상 공개 2021.12.09 [영상]넥슨 'DNF DUEL' 신규 플레이 영상 2021.11.26 [영상]넥슨 '던파 모바일' 공식 애니메이션 영상 2021.11.25 [영상]컴투스 '서머너즈 워: 크로니클' 시네마틱 영상 공개 2021.11.15 많이 본 뉴스 1 ‘천사의 손’ 오남경 수간호사, 제8회 ‘2022년 자랑스러운 인물대상’ 수상 2 [김형일의 입시컨설팅](49)고2 입시_2024학년도 입시 3 삼성SDI, ‘친환경경영’ 선언…2050년 탄소중립 전략 발표 4 팜투어, 8~9일 주말 신혼여행박람회 개최 5 LG헬로비전, 지역채널 오리지널 콘서트 '2022 헬로콘서트 좋은날' 진행 6 인천시 "매월 200원 할인되는 수도요금 전자고지서, 전화로 신청하세요" 7 구광모 회장, 폴란드 총리 만나 ‘부산 엑스포’ 지지 요청 8 K라면, '한류' 타고 라면 소비 1위 베트남서 끓어오른다 9 SRT매거진 설문조사 "언택트보다 ‘맛집 투어’ 갈래요" 10 삼성증권 글로벌 실전투자대회 'G6 투자 챌린지'…8천만원의 상금 주인공은? 칼럼 윤석열 정부 인사, 문재인 정부때와 빼박(?)...공정과 상식이 기준돼야 진퇴양난 '칩4', 국익은 어떻게 지켜낼까? 사람들 정종기 박사, 150가지 사례와 함께 쉽게 활용하는 ‘인공지능 비즈니스’ 출간 팜투어 권일호 대표 "안전한 신혼여행?, 그래서 팜투어" 인천직업능력교육원 이수남 원장 산업포장 수상...“메타버스 시대, 인재 양성” 스마트에프엔 타임라인 10분전 굉주시 남구, 10월 한달간 도심 속 음악회 개최 김형석 기자 2022.10.04 광주·호남 11분전 신한은행, 기업 포괄 채무조정 프로그램 신설·가계채무조정 확대 시행 이성민 기자 2022.10.04 금융 18분전 SK㈜ C&amp;C, 2022년 가명정보 활용 우수사례∙아이디어 경진대회 대상 황성완 기자 2022.10.04 산업 25분전 미디어포털로 도약하는 KT, AI 홈미디어 '지니 TV'로 새롭게 개편 황성완 기자 2022.10.04 산업 27분전 전북도, '전국 최초' 중대재해 예방업무 추진 규칙 제정 한민식 기자 2022.10.04 광주·호남 28분전 영양군보건소, '찾아가는 직장인 건강상담실' 운영 남동락 기자 2022.10.04 대구·경북 28분전 IRA 폭탄 터졌나? 현대차그룹, 美 전기차 판매량 급락 박지성 기자 2022.10.04 산업 34분전 전국 최초 저메탄 조사료 종합유통센터 전남 함평에 들어선다 한민식 기자 2022.10.04 광주·호남 34분전 김제시, 전국우수시장박람회 행안부장관상 수상 한민식 기자 2022.10.04 광주·호남 38분전 황성환 신임 전라남도부교육감 4일 취임 한민식 기자 2022.10.04 광주·호남 38분전 광주경찰, 현장지휘관 대테러 전문교육 한민식 기자 2022.10.04 광주·호남 39분전 완도군, ‘청정완도 가을 섬 여행’ 행사 생일도서 진행 한민식 기자 2022.10.04 광주·호남 40분전 곡성군, 숙박 할인 이벤트 참여업소 모집 한민식 기자 2022.10.04 광주·호남 40분전 군산시, 상하수도 요금 감면 대상자 확대 적용 한민식 기자 2022.10.04 광주·호남 42분전 군위군, '자랑스런 군민상' 5명 선정 남동락 기자 2022.10.04 대구·경북 신문사 소개 기사제보 광고문의 개인정보취급방침 청소년보호정책 이메일무단수집거부 인터넷신문윤리강령 제호 : 스마트에프엔    등록번호 : 서울 아 05119    등록일 : 2018-04-18    발행일 : 2018-05-16    발행인 : 민병오    편집인 : 민병오 서울시 종로구 새문안로 92 광화문 오피시아 802호    대표전화 : 02-761-2258     팩스 : 02-761-2259    청소년보호책임자 : 김효정 스마트에프엔 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2019 스마트에프엔. All rights reserved. mail to news@smartfn.co.kr</t>
+    <t>제주도내 관광사업체 대상 유관기관 합동 현장점검 실시 &lt; 국내 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:50 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도내 관광사업체 대상 유관기관 합동 현장점검 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 국내 제주도내 관광사업체 대상 유관기관 합동 현장점검 실시 기자명 백상원 입력 2020.11.09 14:16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 대한민국 숙박대전 운영 따라 관광업체 공정가격 형성·코로나19 방역상황 점검 사진= 제주특별자치도[투어타임즈=백상원 기자] 제주특별자치도는 지난 4일부터 ‘대한민국 숙박대전’이 진행됨에 따라, 도내 관광사업체를 대상으로 공정가격 형성 및 방역체계 운영상황에 대한 유관기관 합동 현장점검을 실시하고 있다고 밝혔다. 제주도는 관광숙박업소 등 사업체의 불공정요금 방지와 코로나19로부터 안전한 제주를 유지하기 위해 관광사업체 자체 자정운동과 함께 민·관 합동 지도점검을 강화한다. 또한, 제주도 관광협회 및 회원사, 관광사업체와의 협력체계 구축을 통해 민간 자율적인 공정가격 받기를 유도한다. 아울러 관광사업체 객실요금 등 관련 요금에 대한 온라인 모니터링과 제주관광 불편 해소를 위한 도지사 직속 ‘원 지사 핫라인 관광불편 신고센터’를 통해 접수되는 고액 요금 등 불공정 행위는 자치경찰단과 합동으로 지도점검을 추진할 예정이다. 특히 행사기간 제주를 찾는 관광객이 늘어날 것으로 예상됨에 따라, 코로나19로부터 방문객들이 안전하게 지낼 수 있도록 관광사업체 대상 민관합동 방역 상황점검과 마스크 착용 의무화 및 핵심방역수칙 준수사항에 대한 현장 지도점검을 강화할 방침이다. 문화체육관광부와 한국관광공사가 주관하는 ‘대한민국 숙박대전’은 지난 11월 4일부터 12월 23일까지 진행되며 객실가격에 따라 3만원권과 4만원권 2종류의 할인쿠폰이 100만매가 발행된다. 할인쿠폰은 인터파크 투어 및 야놀자, 여기어때 등 24개 온라인여행사를 통해 받아 할인 적용을 받을 수 있다. 시간 내 미사용하거나 예약취소 시 자동으로 무효 처리되며 쿠폰 소진 시까지 재발급도 가능하다. 한편 도에서는 추가예산 2억원을 투입해 여행소비할인권 지원사업체 선정된 제주여행상품업체를 대상으로 1인 1만원의 추가할인을 지원하고 있다. 이번 ‘대한민국 숙박대전’을 통해 코로나19 지속에 따른 관광분야 사업체시설 고정비용과 인건비 등 경영난을 겪고 있는 관광사업체와 종사자들에 대한 도내 관광 내수시장 활성화에 도움이 될 것으로 기대하고 있다. 김재웅 도 관광국장은 “‘관광객과 도민이 안전한 관광제주’ 조성을 위해 공·항만 및 도내 관광사업체를 대상으로 자율방역 시스템 구축과 방역현장 점검활동을 지속 추진해 나가겠다”고고 말했다. 백상원 baekshark@sundog.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 올해 하반기 제주관광진흥기금 융자추천 대상 확정 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:50 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도, 올해 하반기 제주관광진흥기금 융자추천 대상 확정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 제주도, 올해 하반기 제주관광진흥기금 융자추천 대상 확정 기자명 백상원 입력 2020.11.05 15:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 제주관광진흥기금 운용심의위원회 거쳐 총 185개 업체·272억원 규모 지원 사진= 제주특별자치도[투어타임즈=백상원 기자] 제주특별자치도는 2020년 하반기 제주관광진흥기금 융자추천 대상을 총 185개 업체·272억원 규모로 확정했다고 밝혔다. 제주도는 지난 10월 29일 제주관광진흥기금 운용심의위원회를 개최해 이 같은 내용을 심의·의결했다. 제주도는 9월 28일부터 10월 16일까지 융자 신청 접수를 한 결과 총 199건·289억원이 신청 접수됐다. 자금별로는 경영안정자금 197개 업체·260억원, 개·보수자금 2개 업체·29억원이다. 경영안정자금분야는 접수된 197개 업체·260억원 중 타 기금 중복 지원 등의 사유로 14개 업체·46억원이 제외돼 최종 183개 업체·243억원을 확정했다. 또한, 시설 개·보수자금 2개 업체·29억원은 특이사항이 없어 전액을 융자추천하기로 결정했다. 제주도는 이번 하반기 관광진흥기금 특별융자를 통해 코로나19로 경영난을 겪고 있는 관광사업체 지원을 위해 융자 금액 한도 내에서 상반기 대출 실행한 금액을 제외한 나머지를 추가로 융자 추천했다. 특히 이번 융자 추천은 행정처분 이력, 융자금 중도회수 이력 등과 관계없이 신청이 가능하도록 신청 기준이 완화됐다. 융자 추천대상자로 선정된 업체는 제주도내에 소재한 제주관광진흥기금 융자협약 금융기관을 방문해 신청하면 된다. 다만, 경영안정자금은 오는 12월 31일까지, 시설 개·보수 자금은 내년 2월 28일까지 대출을 실행해야 한다. 김재웅 도 관광국장은 “도내 관광업체들이 코로나19 위기상황 속에서 경영안정자금 융자 지원과 관광사업체 시설개선을 통해 경쟁력을 확보할 것으로 기대한다”고 말했다. 이어 융자 지원 제도개선 등을 통해 도민들이 실질적인 혜택을 받을 수 있도록 기금운용 정책을 발굴해 지속 추진하겠다“고 덧붙였다. 백상원 baekshark@sundog.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>JIBS | 전체 뉴스기사 장애인 서비스 광고/협찬 안내 회원가입 로그인 뉴스 뉴스 다시 보기 뉴스 기사 보기 보도 프로그램 뉴스제보 TV 정규프로그램 특집프로그램 종영프로그램 수어프로그램 라디오 김민경의 Now JEJU 동네방송 최재혁의 6시 이정민의 NEW POWER FM 편성표 in제주 60seconds 슬로우TV 제주 시청자센터 시청자 참여 시청자 위원회 시청자 고충처리제도 방송수신안내 공지사항 개인정보취급방침 공지사항 JIBS취재윤리강령 JIBS투어 뉴스 다시 보기 뉴스 기사 보기 보도 프로그램 뉴스제보 (제주) 제주도 가을·겨울 관광객 유치 총력 2020-11-05 JIBS 이효형 기자 글자크기 + - 제주자치도가 관광업계 활성화를 위한 총력 지원에 나섭니다.제주도는 4억원을 들여 늦가을과 겨울에 맞춘 국내 관광객 유치에 나선다고 밝혔습니다.우선 전세버스 이용시 두 좌석에 1명만 앉도록 하는 분산 탑승에 따른 차량료를 보전해줍니다.또 정부의 숙박여행 소비할인권에 따라 공모를 거쳐 선정된 제주여행 상품에는 1만원의 할인을 추가로 제공합니다. JIBS 이효형 기자 &lt;저작권자 © JIBS 제주방송, 무단 전재 및 재배포 금지&gt; 관련기사 목록 최신 뉴스 ∙︎ 제주 야간택시 고질적 승차난 해법 없나 ∙︎ 제주 목조펜션 화재 진압만 6시간..인명피해 없어 ∙︎ 제주도 공공기관 통합채용, 평균 경쟁률 19.2 대 1 ∙︎ 여성폭력 고위험 가해자 첫 재발 방지 운영 ∙︎ 제주 한라산은 벌써 겨울?.. 정상 백록담 '첫 얼음' 관측 ∙︎ 제주, 사라져가는 식물 "여기 다 있네".. 고사리삼부터 나도풍란까지 ∙︎ 고용시장 풀릴까.. "실업급여 신청 줄어" 많이 본 뉴스 ∙ 신라면 1000원에 이어 진라면 너마저 ∙ [일본 하늘길 열렸다] ① "제주-오사카 매일 뜹니다" ∙ 제주, 대기업 골프장 "미쳤네".. 주말 45만 원 "황제 골프인가요?" ∙ 종이컵, 빨대 쓰면 최대 300만원 과태료...다음달부터 1회용품 규제 강화 ∙ 일본 하늘길 열렸다 ③ 핵심시장 회복 속도낼까 ∙ [자막뉴스] 본 적 없는 남성 ‘묻지마 폭행’한 50대 ∙ 오영훈 제주지사 "원희룡 국토부장관과 제2공항 논의하고 싶다" 회사 소개 JIBS방송편성규약 JIBS취재윤리강령 개인정보처리방침 시청자고충처리 시청자위원회 방송수신안내 오시는길 사이트맵 JIBS Family NOW제주TV NOW제주Plus JIBS아나운서 JIBS문화장학재단 지역민영방송 SBS 강원민방 광주방송 대구방송 대전방송 부산방송 울산방송 전주방송 청주방송 우)63148 제주특별자치도 제주시 연삼로 95 (오라삼동) 대표전화 : 064)740-7800 팩스 : 064)740-7859 문의 : webmaster@jibs.co.kr CopyRight.2002 JIBS. ALL RIGHTS RESERVED</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 유치 시동 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이제주도, 관광객 유치 시동 오승철2020년 11월 06일 07시 20분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도가 코로나19로 침체에 빠진 관광업계 활성화를 위해 강력한 방역 태세를 전제로 관광객 유치에 나섭니다. 전세버스는 승객을 절반만 태워 거리두기를 하도록 하고, 이에 대한 비용 손실분을 지원해 주기로 했습니다. 또, 문화체육관광부가 주관하는 숙박과 여행 할인권 제공사업에 선정된 제주 여행상품에 대해서 1인당 만 원을 추가 지원하고, 제주의 가을과 겨울을 주제로 한 홍보물 279편을 제작해 선보이고 있습니다. 오승철ogija@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도, 관광객 유치 시동 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 유치 시동 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도, 관광객 유치 시동 오승철2020년 11월 05일 20시 10분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도가 코로나19로 침체에 빠진 관광업계 활성화를 위해 강력한 방역 태세를 전제로 관광객 유치에 나섭니다. 전세버스는 승객을 절반만 태워 거리두기를 하도록 하고, 이에 대한 비용 손실분을 지원해 주기로 했습니다. 또, 문화체육관광부가 주관하는 숙박과 여행 할인권 제공사업에 선정된 제주 여행상품에 대해서 1인당 만 원을 추가 지원하고, 제주의 가을과 겨울을 주제로 한 홍보물 279편을 제작해 선보이고 있습니다. 오승철ogija@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도, 관광객 유치 시동 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 서울국제관광박람회 최우수 홍보상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 서울국제관광박람회 최우수 홍보상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 서울국제관광박람회 최우수 홍보상 김지우 기자 승인 2020.11.15 12:39 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 부동석)는 지난 9일부터 12일까지 서울 서울 강남구 세텍(SETEC)에서 개최된 2020 서울국제관광박람회에 참가해 최우수 홍보상을 수상했다고 15일 밝혔다. 제주도관광협회는 제주관광홍보관을 운영하고 코로나19 이후 안전관광을 추구하는 언택트 여행과 재각광을 받고 있는 신혼여행, 고부가가치 골프관광 등 ‘안전하고 즐겁고 여유로운 제주여행’을 테마로 홍보해 관람객들에게 큰 호응을 얻었다. 제주도관광협회 관계자는 “포스트 코로나 시대에 대응한 온·오프라인 홍보를 병행하면서 관광객 유치 마케팅을 전개해 나갈 계획”이라고 밝혔다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, '사회적 거리두기' 따른 관광버스 분산탑승 비용 지원 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, '사회적 거리두기' 따른 관광버스 분산탑승 비용 지원 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, '사회적 거리두기' 따른 관광버스 분산탑승 비용 지원 현대성 기자 승인 2020.11.05 10:03 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도가 사회적 거리두기에 따른 관광버스 분산탑승 비용을 지원하는 등 늦가을·겨울 관광객 유치에 나선다. 제주도는 코로나19로 직격탄을 맞은 관광업계의 조기 정상화를 위해 도내 여행업체를 대상으로 관광객 유치를 위한 기금 예산 4억원을 투입한다고 5일 밝혔다. 제주도는 최근 늦가을 단체 관광객이 제주를 찾고 있음에 따라 전세버스 이용 시 '2좌석 1인 분산탑승'에 따라 발생하는 추가 차량 이용료를 보전할 계획이다. 이어 문화체육관광부가 지난달 말부터 관광분야 숙박·여행 소비할인권 제공을 재개함에 따라 여행 소비할인권 지원 사업 공모를 거쳐 선정된 제주여행상품업체를 대상으로 1인 1만원의 할인 금액을 추가로 지원한다. 제주도는 아울러 '당신이 몰랐던 제주여행'을 콘셉트로 오름과 억새, 귤밭, 향토음식 등 오직 제주에서만 즐길 수 있는 숨은 명소와 먹거리 등을 소개하는 279편의 콘텐츠를 제작해 선보이고 있다. 김재웅 제주도 관광국장은 "제주를 방문하는 여행각들이 철저한 개인 방역을 준수할 수 있도록 관광업계와 협업해 여행에 있어 '방역'이 일상이 되는 사회적 분위기를 조성해 나가겠다"고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>성산포수협 활어위판장, 제주도 새 명소로 떠올라...성산일출봉·우도 등 관광코스도 인접 인사이트 스마트비즈 스마트금융 생활경제 오피니언 IT·과학 인사이트 단독 기획 취재 날씨 스마트비즈 전기·전자 자동차 조선·철강 에너지·화학 중기벤처 산업일반 항공·해운·물류 스마트금융 금융 증권 보험·카드 경제일반 생활경제 부동산 건설 유통 식음료 패션·뷰티 오피니언 칼럼 기자수첩 기고 인사·동정·부고 IT·과학 모바일·통신 인터넷·SNS·게임 컴퓨터 제약·바이오 과학 스마트한류·스포츠 영화 음악 방송·TV 스포츠 출판 문화일반 정치·사회·국제 대통령실 국회·정당 정치일반 교육·노동·환경 보건복지 사회일반 전국 국제 HOME 생활경제 가 가 성산포수협 활어위판장, 제주도 새 명소로 떠올라...성산일출봉·우도 등 관광코스도 인접 성산포수협, 11월 18일~12월 25일 성산포 은갈치 특별할인 판매 주서영 기자 2020-11-26 21:43:16 성산포수협 활어위판장 [스마트에프엔=주서영 기자] 제주특별자치도 성산포 어업인들의 숙원 사업인 성산포항 활어위판장 건립 사업이 2년 여 간의 공사를 마치고 지난달 15일 문을 연 이후 제주도의 새로운 관광코스로 떠오르고 있다. 성산포수협 활어 위판센터는 성산포항 내 지상 4층, 지하 1층 대지 762평, 건축연면적 1천797평 규모로 조성됐다. 성산포수협 활어위판센터는 4층 건물로 1층에는 활어 위판장 및 활어판매장, 2층 고급일식집 및 커피전문점, 3층 활어 회센터, 4층 수산물 홍보관으로 이뤄져있다. 성산포항 활어위판장 개장을 통해 갓 잡은 신선한 활어를 판매할 수 있어 제주도민들은 물론, 관광객들이 품질 좋은 활어를 구입할 수 있다. 이처럼 방문객들이 싱싱한 활어를 즐길 수 있는 관광어시장형 회센터로 조성됨에 따라 성산일출봉과 우도, 섭지코지 등 주변 관광지와 연계한 어촌 관광자원으로 자리 잡을 수 있을 것으로 기대된다. 성산포수협 제공 한편 성산포수협은 이달 18일부터 12월 25일까지 성산포 은갈치 특별할인 판매를 진행한다. 선동갈치(18~19미)를 2만원 할인된 20만원에 판매한다. 자세한 사항은 성산포수협 홈페이지를 참고하면 된다. [주변 관광지] 성산일출봉. 제주도청 제공◇성산일출봉 높이 180m의 성산일출봉은 약 5천 년 전 얕은 바다에서 일어난 수성화산 활동으로 형성된 응회구이다. 지하에서 올라온 뜨거운 마그마와 물이 만나 격렬하게 반응하면서 분출된 화산재가 쌓여 일출봉이 형성됐다. 수성화산 분출 당시 화산체의 모습을 그대로 잘 간직하면서 화산재가 겹겹이 쌓인 퇴적 구조를 선명하게 보여준다. 거대한 성의 모습을 닮아 성산(城山)이라 부르던 이곳은 해 뜨는 모습이 아름답다는 의미가 더해져 지금은 성산일출봉(城山日出峰)이라 부른다. 우도. 제주도청 제공◇우도 우도는 성산일출봉에서 북동쪽으로 약 3 km 떨어져 있으며 섬의 중앙에는 화산재로 이루어진 소머리오름 응회구(우도봉)가 있고 마을이 형성된 북서 방향으로 넓은 용암대지가 발달해 있다. 우도에는 다양한 종류의 해변이 존재한다. 특히 서빈백사로 알려진 흰색의 홍조단괴 백사장이 있다. 홍조단괴는 성산과 우도 사이의 얕은 바다에서 작은 핵을 중심으로 석회성분을 만드는 홍조류가 구르면서 둥글게 성장한 것이다. 이런 독특한 가치로 인해 홍조단괴는 국가지정문화재로 지정됐다. 섭지코지. 제주도청 제공◇섭지코지 제주 동부해안에 볼록 튀어나온 섭지코지는 성산 일출봉을 배경으로한 해안풍경이 일품이다. 들머리의 신양해변백사장, 끝머리 언덕위 평원에 드리워진 유채밭, 여유롭게 풀을 뜯는 제주조랑말들, 바위로 둘러친 해안절벽과 우뚝 치솟은 전설어린 선바위 등은 전형적인 제주의 아름다움을 만날 수 있다. 섭지코지의 섭지란 재사(才士)가 많이 배출되는 지세라는 뜻이며 코지는 육지에서 바다로 톡 튀어나온 '곶'을 뜻하는 제주방언이다. 주서영 기자 news@smartfn.co.kr &lt;저작권자 © 스마트에프엔, 무단 전재 및 재배포 금지&gt; 주서영 기자 news@smartfn.co.kr ‘방탄X쿠키런:킹덤' 해외 팬들 통했을까..앱 현황과 검색량은? 2022년 10월 11일 오늘의 띠별 운세 ‘애플페이 등장 초읽기’ 카드 빅4 앱 추이는?…신한플레이·삼성카드 순 관련기사 식약처장, GMO 완전표시제 2026년부터 단계적으로 추진 2022-10-07 [2022국감] 발란·트렌비·머스트잇, 국감 도마 위 오른 이유는 2022-10-07 맥도날드, ‘창립자의 날’ 맞아 고객만족 우수 직원에 감사 인사 2022-10-06 이랜드리테일, 사업 재편 완료...온오프라인 경계 없는 '무한 경쟁시대' 대비 2022-10-06 갤러리아백화점, 美 버거 ‘파이브가이즈’ 국내 출시 2022-10-06 댓글(0) ※ 댓글 작성시 상대방에 대한 배려와 책임을 담아 깨끗한 댓글 환경에 동참에 주세요. 0 / 300 등록 실시간 기사 한국조선해양·두산퓨얼셀, 연료전지 대형선박 적용 실증 나서 수익성 높은 챗봇·VDA 시장…“소수 기업이 지배하지 않을 것” 제주항공, 인천~울란바토르 탑승률 86.2%…1만7200명 이용 국내 전력 도매시장 1kWh당 전기요금 가격 270원…사상 최고 금호타이어 ‘로드벤처 AT52’, 日 굿 디자인 어워드 본상 수상 전국 광주시 광산구, 광산아트페스티벌 '별무리 예술장터' 개최 광주광역시 광산구는 오는 14일부터 15일까지 소촌아트팩토리에서 2022 광산아트페스티벌 ‘별무리 예술장터&amp;rs 고창군, 호남의병 최초순국 일광 정시해 의사 학술대회 개최 전북 고창군 고창일광기념사업회는 최근 고창문화원에서 한말 호남의병 최초순국 의사 일광 정시해의 절의 정신 고창군 관내단체, 취약계층에 직접 만든 고추장 전달 전북 고창군 새마을운동 고창군지회와 고창군새마을부녀회는 최근 새마을회관에서 행복 나눔 고추장 담기 행사 2022 국감 식음료 2024년 법제화해 2026년 단계적 도입 시작 예정 인터넷·SNS·게임 네이버는 제외됐는데…국감 불려나가는 카카오 CEO 인사이트 올해 국감서 ‘철강·조선’ 왜 타깃됐나? 항공·해운·물류 대한항공-아시아나 합병시, 유럽·美 운항 주 69회 포기? 식음료 “치킨값이 3만원?”... 치킨 프랜차이즈 실태조사 요망 생활경제 퀵커머스, 제2의 대형마트 규제 타깃?...배민·쿠팡 CEO 국감 증인 스마트한류·스포츠 CJ대한통운 김주형 선수, PGA 투어 최연소 2승 달성 CJ대한통운 소속 프로골퍼 김주형이 PGA 투어 사상 최연소 2승 달성의 쾌거를 이루면서 CJ그룹의 ‘온리원’ 팜투어, 15~16일 서울·부산서 주말 신혼여행박람회 개최 허니문여행사 팜투어(대표이사 권일호)는 오는 15일과 16일 양일간 본사가 위치한 서울과 직영점 팜투어부산에서 인사이트 단독 기획 취재 날씨 스마트비즈 전기·전자 자동차 조선·철강 에너지·화학 중기벤처 산업일반 항공·해운·물류 스마트금융 금융 증권 보험·카드 경제일반 생활경제 부동산 건설 유통 식음료 패션·뷰티 오피니언 칼럼 기자수첩 기고 인사·동정·부고 IT·과학 모바일·통신 인터넷·SNS·게임 컴퓨터 제약·바이오 과학 스마트한류·스포츠 영화 음악 방송·TV 스포츠 출판 문화일반 정치·사회·국제 대통령실 국회·정당 정치일반 교육·노동·환경 보건복지 사회일반 전국 국제 신문사소개 기사제보 광고문의 개인정보취급방침 청소년보호정책 이메일무단수집거부 인터넷윤리강령 찾아오시는 길 제호 : 스마트에프엔 등록번호 : 서울 아 05119등록일 : 2018-04-18발행일 : 2018-05-16발행인 : 민병오편집인 : 민병오서울 종로구 새문안로 92 (신문로1가, 광화문오피시아빌딩) 802호대표전화 : 02-761-2258팩스 : 02-761-2259청소년보호책임자 : 김효정 스마트에프엔 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 스마트에프엔. All rights reserved. mail to news@smartfn.co.kr</t>
   </si>
 </sst>
 </file>
@@ -434,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -511,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,10 +690,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,10 +701,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,10 +712,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,10 +723,334 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
